--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.258</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.252</v>
+        <v>19.549</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.015</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.585</v>
+        <v>19.792</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.985</v>
+        <v>16.153</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.411216374673888</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.10524174519024</v>
+        <v>14.46126789670374</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.10524174519024</v>
+        <v>20.34909679767911</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.10524174519024</v>
+        <v>-10.31536827201395</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.10524174519024</v>
+        <v>9.706086548056231</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.10524174519024</v>
+        <v>14.73802006456212</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.281786704159419</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.10524174519024</v>
+        <v>21.29491861803141</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.10524174519024</v>
+        <v>27.71190273064864</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.10524174519024</v>
+        <v>23.95141944024503</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.10524174519024</v>
+        <v>34.7467312364128</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.10524174519024</v>
+        <v>38.75897337508052</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.10524174519024</v>
+        <v>3.203649659200021</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.10524174519024</v>
+        <v>24.17645155071152</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.10524174519024</v>
+        <v>31.70161413325097</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.10524174519024</v>
+        <v>0.8070137134905444</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.10524174519024</v>
+        <v>19.68793035785101</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.10524174519024</v>
+        <v>25.57783345803686</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.107957615368338</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.10524174519024</v>
+        <v>14.92047873851122</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.10524174519024</v>
+        <v>19.95555106720932</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.10524174519024</v>
+        <v>3.932521959213357</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.10524174519024</v>
+        <v>26.51763248674994</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.10524174519024</v>
+        <v>32.93700104960173</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.10524174519024</v>
+        <v>29.17976883453143</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.10524174519024</v>
+        <v>39.98164241710394</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30.10524174519024</v>
+        <v>43.99477579919237</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.10524174519024</v>
+        <v>8.424389939675205</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.10524174519024</v>
+        <v>29.41242567728584</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.10524174519024</v>
+        <v>36.93747606590811</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.10524174519024</v>
+        <v>8.562835702862269</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.10524174519024</v>
+        <v>27.4453786923256</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.10524174519024</v>
+        <v>33.33661835727132</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.10524174519024</v>
+        <v>2.655074162617705</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.10524174519024</v>
+        <v>22.68612104535843</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.10524174519024</v>
+        <v>27.72162759973518</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.10524174519024</v>
+        <v>11.69871376147266</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.10524174519024</v>
+        <v>34.28555754800918</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>30.10524174519024</v>
+        <v>40.7064359571862</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.10524174519024</v>
+        <v>36.95387685790551</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.10524174519024</v>
+        <v>47.75646057121087</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>30.10524174519024</v>
+        <v>51.77097737543265</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.10524174519024</v>
+        <v>16.19515765313103</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.10524174519024</v>
+        <v>37.18485570751413</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.10524174519024</v>
+        <v>44.71095427057644</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.10524174519024</v>
+        <v>3.146583715099307</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.10524174519024</v>
+        <v>22.02149196378006</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.10524174519024</v>
+        <v>27.90797254058445</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.10524174519024</v>
+        <v>-2.755126100204809</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.10524174519024</v>
+        <v>17.26910770570298</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.10524174519024</v>
+        <v>22.2994031455526</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.10524174519024</v>
+        <v>6.280029550004468</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.10524174519024</v>
+        <v>28.85901685291246</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.10524174519024</v>
+        <v>35.27468977018525</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.10524174519024</v>
+        <v>31.51424199997022</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.10524174519024</v>
+        <v>42.30949183748207</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.10524174519024</v>
+        <v>46.32108159168983</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30.10524174519024</v>
+        <v>10.76274951880354</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.10524174519024</v>
+        <v>31.73826412487839</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.10524174519024</v>
+        <v>39.2620891004414</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.10524174519024</v>
+        <v>8.356372741000353</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.10524174519024</v>
+        <v>27.23971272372561</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.10524174519024</v>
+        <v>33.12826696738072</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>30.10524174519024</v>
+        <v>2.443843027062297</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.10524174519024</v>
+        <v>22.47505769126114</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.10524174519024</v>
+        <v>27.50849135959292</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.10524174519024</v>
+        <v>11.48589665828676</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.10524174519024</v>
+        <v>34.07328856535803</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.10524174519024</v>
+        <v>40.49134539154549</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.10524174519024</v>
+        <v>36.73414954724858</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.10524174519024</v>
+        <v>47.53596070374503</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.10524174519024</v>
+        <v>51.5484414187428</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.10524174519024</v>
+        <v>15.9750487189306</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.10524174519024</v>
+        <v>36.96579631833451</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.10524174519024</v>
+        <v>44.48950884070454</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.10524174519024</v>
+        <v>16.11413800272025</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.10524174519024</v>
+        <v>34.99910420876385</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.10524174519024</v>
+        <v>40.8889951438221</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.10524174519024</v>
+        <v>10.20881776873152</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.10524174519024</v>
+        <v>30.24264285205087</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.10524174519024</v>
+        <v>35.27651083020798</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.10524174519024</v>
+        <v>19.25403148396485</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.10524174519024</v>
+        <v>41.84315648783779</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.10524174519024</v>
+        <v>48.26272330376598</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.10524174519024</v>
+        <v>44.51019992038009</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.10524174519024</v>
+        <v>55.31272117195935</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.10524174519024</v>
+        <v>59.32658553743936</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.10524174519024</v>
+        <v>23.74775895192242</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.10524174519024</v>
+        <v>44.74016876520243</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.10524174519024</v>
+        <v>52.264929532788</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.10524174519024</v>
+        <v>2.499741219972332</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.10524174519024</v>
+        <v>21.37431721931345</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.10524174519024</v>
+        <v>27.26062591541305</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.402664991151898</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.10524174519024</v>
+        <v>16.62128724906396</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.10524174519024</v>
+        <v>21.65133469315792</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.10524174519024</v>
+        <v>5.632519514140579</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.10524174519024</v>
+        <v>28.21120598071938</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.10524174519024</v>
+        <v>34.62671697115847</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.10524174519024</v>
+        <v>30.86635993722056</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.10524174519024</v>
+        <v>41.66145541400776</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>30.10524174519024</v>
+        <v>45.67286059007431</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.10524174519024</v>
+        <v>10.1153112913153</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.10524174519024</v>
+        <v>31.09036178876208</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.10524174519024</v>
+        <v>38.61399835459274</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.10524174519024</v>
+        <v>7.715434185206771</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.10524174519024</v>
+        <v>26.59844204440007</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.10524174519024</v>
+        <v>32.48682440232794</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.10524174519024</v>
+        <v>1.802208539416863</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.10524174519024</v>
+        <v>21.83314185832891</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.10524174519024</v>
+        <v>26.86632750777975</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.10524174519024</v>
+        <v>10.8442913414256</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.10524174519024</v>
+        <v>33.43138253446004</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.10524174519024</v>
+        <v>39.84927742873019</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.10524174519024</v>
+        <v>36.09217204880547</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.10524174519024</v>
+        <v>46.89382884620981</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.10524174519024</v>
+        <v>50.90612494739871</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.10524174519024</v>
+        <v>15.3335147646142</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.10524174519024</v>
+        <v>36.32379839851005</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.10524174519024</v>
+        <v>43.84732256778356</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.10524174519024</v>
+        <v>15.47245630826459</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.10524174519024</v>
+        <v>34.35709039268265</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.10524174519024</v>
+        <v>40.24680943571882</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>30.10524174519024</v>
+        <v>9.566439989452004</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.10524174519024</v>
+        <v>29.5999837076237</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.10524174519024</v>
+        <v>34.63360366062845</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.10524174519024</v>
+        <v>18.61168281714349</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.10524174519024</v>
+        <v>41.20050711112451</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.10524174519024</v>
+        <v>47.61991198739149</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.10524174519024</v>
+        <v>43.86747915949609</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.10524174519024</v>
+        <v>54.6698460259236</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.10524174519024</v>
+        <v>58.68352583220398</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.10524174519024</v>
+        <v>23.10548174917748</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.10524174519024</v>
+        <v>44.09742758102622</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.10524174519024</v>
+        <v>51.62199997739246</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.331880232576584</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.10524174519024</v>
+        <v>12.54005129091381</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.10524174519024</v>
+        <v>18.42744600137523</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.23620235954202</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.10524174519024</v>
+        <v>7.784640408179182</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.10524174519024</v>
+        <v>12.81608863939634</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.202878720163842</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.10524174519024</v>
+        <v>19.37322376143679</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.10524174519024</v>
+        <v>25.7897791640883</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.10524174519024</v>
+        <v>22.0295493210679</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.10524174519024</v>
+        <v>32.82461031070925</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.10524174519024</v>
+        <v>36.83667932681082</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.10524174519024</v>
+        <v>1.282523716461849</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.10524174519024</v>
+        <v>22.25471271786322</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.10524174519024</v>
+        <v>29.77942677170817</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.11524442274909</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.10524174519024</v>
+        <v>17.7651192598078</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.10524174519024</v>
+        <v>23.65458812971546</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.10524174519024</v>
+        <v>-7.030386108880936</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.10524174519024</v>
+        <v>12.99743797533896</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.10524174519024</v>
+        <v>18.03202496337012</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.10524174519024</v>
+        <v>2.009835423519728</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.10524174519024</v>
+        <v>24.59434290170615</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.10524174519024</v>
+        <v>31.01328271239667</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.10524174519024</v>
+        <v>27.25630387570304</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.10524174519024</v>
+        <v>38.05792653148573</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.10524174519024</v>
+        <v>42.07088677965685</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.10524174519024</v>
+        <v>6.501669251095603</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.10524174519024</v>
+        <v>27.48909173058432</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.10524174519024</v>
+        <v>35.0136936060931</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.10524174519024</v>
+        <v>6.641330108132745</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.10524174519024</v>
+        <v>25.5233201515695</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.10524174519024</v>
+        <v>31.41412553046113</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.10524174519024</v>
+        <v>0.7333980051612734</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.10524174519024</v>
+        <v>20.76383262142239</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.10524174519024</v>
+        <v>25.79885378322846</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.10524174519024</v>
+        <v>9.77677960541568</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.10524174519024</v>
+        <v>32.3630203575256</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.10524174519024</v>
+        <v>38.78346996307646</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.10524174519024</v>
+        <v>35.03116414988135</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.10524174519024</v>
+        <v>45.83349691440098</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.10524174519024</v>
+        <v>49.84784055591176</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.10524174519024</v>
+        <v>14.27318927029527</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.10524174519024</v>
+        <v>35.26227403820751</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.10524174519024</v>
+        <v>42.78792402493939</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.10524174519024</v>
+        <v>3.071183709597147</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.10524174519024</v>
+        <v>21.94464148096408</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.10524174519024</v>
+        <v>27.83202216744898</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.10524174519024</v>
+        <v>-2.832060665204114</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.10524174519024</v>
+        <v>17.1905109098589</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.10524174519024</v>
+        <v>22.22191828207182</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.10524174519024</v>
+        <v>6.202261404234417</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.10524174519024</v>
+        <v>28.77992247245599</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.10524174519024</v>
+        <v>35.19648836316053</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.10524174519024</v>
+        <v>31.43579123677004</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.10524174519024</v>
+        <v>42.2313826168551</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.10524174519024</v>
+        <v>46.2433807831798</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.10524174519024</v>
+        <v>10.68694933612737</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.10524174519024</v>
+        <v>31.66052945053563</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.10524174519024</v>
+        <v>39.1852679298858</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.10524174519024</v>
+        <v>8.290531332445919</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.10524174519024</v>
+        <v>27.17242125602142</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.10524174519024</v>
+        <v>33.06187593795543</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30.10524174519024</v>
+        <v>2.376467434390673</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.10524174519024</v>
+        <v>22.40602034519695</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.10524174519024</v>
+        <v>27.44056630948982</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.10524174519024</v>
+        <v>11.41768760316658</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.10524174519024</v>
+        <v>34.00375366206588</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.10524174519024</v>
+        <v>40.42270379349377</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.10524174519024</v>
+        <v>36.66525789424763</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.10524174519024</v>
+        <v>47.46741094009478</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>30.10524174519024</v>
+        <v>51.480300253572</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.10524174519024</v>
+        <v>15.90880718320845</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.10524174519024</v>
+        <v>36.89762081236874</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.10524174519024</v>
+        <v>44.42224697717363</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.10524174519024</v>
+        <v>16.04400631160801</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.10524174519024</v>
+        <v>34.92752255614657</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.10524174519024</v>
+        <v>40.81831383975684</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.10524174519024</v>
+        <v>10.13715201258473</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.10524174519024</v>
+        <v>30.16931538639748</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.10524174519024</v>
+        <v>35.20429559657798</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.10524174519024</v>
+        <v>19.18153204082982</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30.10524174519024</v>
+        <v>41.76933132518688</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.10524174519024</v>
+        <v>48.18979135441741</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.10524174519024</v>
+        <v>44.43701853344969</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.10524174519024</v>
+        <v>55.23988174801927</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.10524174519024</v>
+        <v>59.2541545338576</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.10524174519024</v>
+        <v>23.67722759360826</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.10524174519024</v>
+        <v>44.66770357033288</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.10524174519024</v>
+        <v>52.19337795157826</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.10524174519024</v>
+        <v>6.999870909594886</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.10524174519024</v>
+        <v>25.87364778391717</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.10524174519024</v>
+        <v>31.75951922391452</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.10524174519024</v>
+        <v>1.098516294822542</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.10524174519024</v>
+        <v>21.12166957595052</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.10524174519024</v>
+        <v>26.15142807408862</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.10524174519024</v>
+        <v>10.13319865648195</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.10524174519024</v>
+        <v>32.71076881005983</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.10524174519024</v>
+        <v>39.12580363588886</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.10524174519024</v>
+        <v>35.3650456597416</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.10524174519024</v>
+        <v>46.15985537847421</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.10524174519024</v>
+        <v>50.17085980522317</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.10524174519024</v>
+        <v>14.61519318653749</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.10524174519024</v>
+        <v>35.58899473251692</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.10524174519024</v>
+        <v>43.11203309267823</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.10524174519024</v>
+        <v>12.22111376292154</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.10524174519024</v>
+        <v>31.10332183400298</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.10524174519024</v>
+        <v>36.99126670704815</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.10524174519024</v>
+        <v>6.308940755569704</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.10524174519024</v>
+        <v>26.33907450884503</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.10524174519024</v>
+        <v>31.37197094409798</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.10524174519024</v>
+        <v>15.35052095467249</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.10524174519024</v>
+        <v>37.93649517280191</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.10524174519024</v>
+        <v>44.35391364046818</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>30.10524174519024</v>
+        <v>40.596406919025</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.10524174519024</v>
+        <v>51.39777745161602</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.10524174519024</v>
+        <v>55.40967282294552</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.10524174519024</v>
+        <v>19.83894659694333</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.10524174519024</v>
+        <v>40.8279800394544</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.10524174519024</v>
+        <v>48.3509058789637</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.10524174519024</v>
+        <v>19.97295886673741</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.10524174519024</v>
+        <v>38.85679299548296</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.10524174519024</v>
+        <v>44.74607436088881</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.10524174519024</v>
+        <v>14.067994217063</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.10524174519024</v>
+        <v>34.10073806714733</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.10524174519024</v>
+        <v>39.13406868497093</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.10524174519024</v>
+        <v>23.11273403583122</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.10524174519024</v>
+        <v>45.70044117566913</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.10524174519024</v>
+        <v>52.11936942694165</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.10524174519024</v>
+        <v>48.36653503825623</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.10524174519024</v>
+        <v>59.16861569507232</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.10524174519024</v>
+        <v>63.18189451340486</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.10524174519024</v>
+        <v>27.60573495841053</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.10524174519024</v>
+        <v>48.59643050676168</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.10524174519024</v>
+        <v>56.12040445729353</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.788026015224734</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.10524174519024</v>
+        <v>12.08285174999916</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.10524174519024</v>
+        <v>17.96951036430748</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.69111530257301</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.10524174519024</v>
+        <v>7.328778528091942</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.10524174519024</v>
+        <v>12.3594604216634</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.658182752546015</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.10524174519024</v>
+        <v>18.91650302900352</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.10524174519024</v>
+        <v>25.33226288311225</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.10524174519024</v>
+        <v>21.57245291441636</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.10524174519024</v>
+        <v>32.36632806564278</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.10524174519024</v>
+        <v>36.37783500969674</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.10524174519024</v>
+        <v>0.8259508725300684</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.10524174519024</v>
+        <v>21.79694902911903</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.10524174519024</v>
+        <v>29.32071575539468</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.565290063843651</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.10524174519024</v>
+        <v>17.31401933309591</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.10524174519024</v>
+        <v>23.20275184951849</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.10524174519024</v>
+        <v>-7.479197046937845</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.10524174519024</v>
+        <v>12.54767772610061</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.10524174519024</v>
+        <v>17.58149807784734</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.10524174519024</v>
+        <v>1.560633277678374</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.10524174519024</v>
+        <v>24.14372354403512</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.10524174519024</v>
+        <v>30.56186750975693</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.10524174519024</v>
+        <v>26.80530811787143</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.10524174519024</v>
+        <v>37.60574428623197</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>30.10524174519024</v>
+        <v>41.61814235568856</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.10524174519024</v>
+        <v>6.051197534063515</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.10524174519024</v>
+        <v>27.03742816547905</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.10524174519024</v>
+        <v>34.56108271295629</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.10524174519024</v>
+        <v>6.19153028563009</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.10524174519024</v>
+        <v>25.07246573647221</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.10524174519024</v>
+        <v>30.96253471877825</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.10524174519024</v>
+        <v>0.28483181247638</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.10524174519024</v>
+        <v>20.31431677558809</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.10524174519024</v>
+        <v>25.34857131005098</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.10524174519024</v>
+        <v>9.327822066984066</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.10524174519024</v>
+        <v>31.91264527002685</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.10524174519024</v>
+        <v>38.33229896134735</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.10524174519024</v>
+        <v>34.58041196301387</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.10524174519024</v>
+        <v>45.3815581612012</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.10524174519024</v>
+        <v>49.39533959569899</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.10524174519024</v>
+        <v>13.82296155145449</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.10524174519024</v>
+        <v>34.81085411158237</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.10524174519024</v>
+        <v>42.33555672969332</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.10524174519024</v>
+        <v>-11.7870295370097</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>30.10524174519024</v>
+        <v>7.085583915344994</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.10524174519024</v>
+        <v>12.9730320864832</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.10524174519024</v>
+        <v>-17.6905238212416</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.10524174519024</v>
+        <v>2.33111340369582</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.10524174519024</v>
+        <v>7.362547435561321</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.10524174519024</v>
+        <v>-8.65729461611814</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.10524174519024</v>
+        <v>13.91949173407026</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.10524174519024</v>
+        <v>20.33612585367306</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.10524174519024</v>
+        <v>16.5761101316887</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.10524174519024</v>
+        <v>27.37156260769965</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>30.10524174519024</v>
+        <v>31.38366010326972</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.17203110275462</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.10524174519024</v>
+        <v>16.80092978281611</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.10524174519024</v>
+        <v>24.3256137403918</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.571780592101579</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.10524174519024</v>
+        <v>12.30926494315888</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.10524174519024</v>
+        <v>18.19878716632563</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.48609446198551</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.10524174519024</v>
+        <v>7.542523992078184</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.10524174519024</v>
+        <v>12.57709665226791</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.445967314450929</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.10524174519024</v>
+        <v>19.13922396349089</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.10524174519024</v>
+        <v>25.55824238414383</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.10524174519024</v>
+        <v>21.80147807733583</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.10524174519024</v>
+        <v>32.60349219561458</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.10524174519024</v>
+        <v>36.61648090831777</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.10524174519024</v>
+        <v>1.045728006920665</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.10524174519024</v>
+        <v>22.03392235903372</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.10524174519024</v>
+        <v>29.55849405122551</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.10524174519024</v>
+        <v>1.183718907533642</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.10524174519024</v>
+        <v>20.0663908369185</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.10524174519024</v>
+        <v>25.95724965680749</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.723385235410849</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.10524174519024</v>
+        <v>15.30784377857143</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.10524174519024</v>
+        <v>20.34285069179968</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.10524174519024</v>
+        <v>4.319901889537999</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>30.10524174519024</v>
+        <v>26.90682645944632</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.10524174519024</v>
+        <v>33.3273547739406</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.10524174519024</v>
+        <v>29.57526340280041</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30.10524174519024</v>
+        <v>40.37798775170624</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.10524174519024</v>
+        <v>44.39235989146793</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.10524174519024</v>
+        <v>8.816173044551572</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.10524174519024</v>
+        <v>29.80602981741678</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.10524174519024</v>
+        <v>37.33164967821624</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.10524174519024</v>
+        <v>6.764439334509046</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.10524174519024</v>
+        <v>25.63893125864255</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.10524174519024</v>
+        <v>31.5254361750779</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.10524174519024</v>
+        <v>0.8643874071199598</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>30.10524174519024</v>
+        <v>20.88837946741414</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.10524174519024</v>
+        <v>25.91870678412333</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.10524174519024</v>
+        <v>9.89939077873127</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.10524174519024</v>
+        <v>32.47786615928423</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.10524174519024</v>
+        <v>38.89351405614882</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.10524174519024</v>
+        <v>35.13333251201156</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.10524174519024</v>
+        <v>45.92812847329326</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.10524174519024</v>
+        <v>49.93959639958614</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.10524174519024</v>
+        <v>14.38330755208953</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.10524174519024</v>
+        <v>35.35788889038956</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.10524174519024</v>
+        <v>42.88168948224249</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.10524174519024</v>
+        <v>11.97439884957639</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.10524174519024</v>
+        <v>30.85732216881892</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.10524174519024</v>
+        <v>36.74590046642656</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.10524174519024</v>
+        <v>6.063527725587658</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.10524174519024</v>
+        <v>26.0945003427261</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.10524174519024</v>
+        <v>31.12796556789833</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.10524174519024</v>
+        <v>15.10542863417121</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.10524174519024</v>
+        <v>37.69230827636095</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.10524174519024</v>
+        <v>44.11033978227822</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.10524174519024</v>
+        <v>40.35341029541227</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.10524174519024</v>
+        <v>51.15476721422367</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.10524174519024</v>
+        <v>55.16712607764786</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.10524174519024</v>
+        <v>19.5957774176732</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.10524174519024</v>
+        <v>40.58559112347955</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.10524174519024</v>
+        <v>48.10927891192539</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.10524174519024</v>
+        <v>19.73035934586487</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.10524174519024</v>
+        <v>38.61490878355828</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.10524174519024</v>
+        <v>44.50482375548488</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.10524174519024</v>
+        <v>13.82669726371482</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.10524174519024</v>
+        <v>33.86028015591437</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.10524174519024</v>
+        <v>38.89417969891137</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.10524174519024</v>
+        <v>22.87175805379983</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.10524174519024</v>
+        <v>45.46037068248579</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.10524174519024</v>
+        <v>51.87991215601623</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.10524174519024</v>
+        <v>48.1276549866548</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.10524174519024</v>
+        <v>58.92972206361178</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.10524174519024</v>
+        <v>62.94346446006993</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.10524174519024</v>
+        <v>27.3666820512547</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.10524174519024</v>
+        <v>48.35815793368776</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.10524174519024</v>
+        <v>55.88289401789818</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.21139116906314</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.10524174519024</v>
+        <v>6.659085206494449</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.10524174519024</v>
+        <v>12.54581695689812</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.10524174519024</v>
+        <v>-18.11517749286834</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.10524174519024</v>
+        <v>1.904175720209121</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.10524174519024</v>
+        <v>6.934949347429818</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.10524174519024</v>
+        <v>-9.082588381456237</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.10524174519024</v>
+        <v>13.49163196366116</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.10524174519024</v>
+        <v>19.90748340927761</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.10524174519024</v>
+        <v>16.14705806195392</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.10524174519024</v>
+        <v>26.94081542540657</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.10524174519024</v>
+        <v>30.9525096172611</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.59987065510764</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.10524174519024</v>
+        <v>16.37121983063893</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.10524174519024</v>
+        <v>23.8950319120277</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.993808668548883</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.10524174519024</v>
+        <v>11.88509921575682</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.10524174519024</v>
+        <v>17.77390497809283</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.90841315956228</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.10524174519024</v>
+        <v>7.117920918140197</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.10524174519024</v>
+        <v>12.15183304090389</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.868926370330502</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.10524174519024</v>
+        <v>18.71369832851034</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.10524174519024</v>
+        <v>25.13193400435254</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.10524174519024</v>
+        <v>21.3747591846341</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.10524174519024</v>
+        <v>32.17507753101829</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.10524174519024</v>
+        <v>36.18766285604345</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.10524174519024</v>
+        <v>0.6202220422699547</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.10524174519024</v>
+        <v>21.60654484376009</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.10524174519024</v>
+        <v>29.13024499914358</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.10524174519024</v>
+        <v>0.7640329874455283</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.10524174519024</v>
+        <v>19.64456692933156</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.10524174519024</v>
+        <v>25.53470921271439</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.143362722151284</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.10524174519024</v>
+        <v>14.88558149291888</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.10524174519024</v>
+        <v>19.91992789354303</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.10524174519024</v>
+        <v>3.899283977809585</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.10524174519024</v>
+        <v>26.48364161803196</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.10524174519024</v>
+        <v>32.90338707267669</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.10524174519024</v>
+        <v>29.15088462943804</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.10524174519024</v>
+        <v>39.95191290283019</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.10524174519024</v>
+        <v>43.96588170490627</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.10524174519024</v>
+        <v>8.39300778164424</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.10524174519024</v>
+        <v>29.38099247387406</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.10524174519024</v>
+        <v>36.90574070312248</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.828258272600539</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.10524174519024</v>
+        <v>17.04536690325237</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.10524174519024</v>
+        <v>22.93128952189015</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.10524174519024</v>
+        <v>-7.731332097053002</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.10524174519024</v>
+        <v>12.2915350493643</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.10524174519024</v>
+        <v>17.32125412304257</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.10524174519024</v>
+        <v>1.303193386196011</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.10524174519024</v>
+        <v>23.88076794692669</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.10524174519024</v>
+        <v>30.29589564103393</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.10524174519024</v>
+        <v>26.53559017474167</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.10524174519024</v>
+        <v>37.33044206441734</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.10524174519024</v>
+        <v>41.34156957240582</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.10524174519024</v>
+        <v>5.785278112387953</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.10524174519024</v>
+        <v>26.75937101357617</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.10524174519024</v>
+        <v>34.28250637715728</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.10524174519024</v>
+        <v>3.393826984832042</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.10524174519024</v>
+        <v>22.27588380551132</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.10524174519024</v>
+        <v>28.16388009086976</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.10524174519024</v>
+        <v>-2.520065736453109</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.10524174519024</v>
+        <v>17.50978236773703</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.10524174519024</v>
+        <v>22.54263961951805</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.10524174519024</v>
+        <v>6.52135817691855</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.10524174519024</v>
+        <v>29.10733725347681</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.10524174519024</v>
+        <v>35.52484884298637</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.10524174519024</v>
+        <v>31.76779443495347</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.10524174519024</v>
+        <v>42.56920746972064</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.10524174519024</v>
+        <v>46.58122585742858</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.10524174519024</v>
+        <v>11.00987381068766</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.10524174519024</v>
+        <v>31.99919937054248</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.10524174519024</v>
+        <v>39.52222247668207</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.10524174519024</v>
+        <v>11.14947052700635</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.10524174519024</v>
+        <v>30.03315352358394</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.10524174519024</v>
+        <v>35.9224864023568</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.10524174519024</v>
+        <v>5.242786705529209</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.10524174519024</v>
+        <v>25.27524509610127</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.10524174519024</v>
+        <v>30.30853659061669</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.10524174519024</v>
+        <v>14.28737047374379</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.10524174519024</v>
+        <v>36.87508259718486</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>30.10524174519024</v>
+        <v>43.29410407464427</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.10524174519024</v>
+        <v>39.5417220815646</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.10524174519024</v>
+        <v>50.34384514668083</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.10524174519024</v>
+        <v>54.3572472127925</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.10524174519024</v>
+        <v>18.7804615226908</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.10524174519024</v>
+        <v>39.77144921720382</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.10524174519024</v>
+        <v>47.29552045633663</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.49590173667942</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.10524174519024</v>
+        <v>6.375676775780146</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.10524174519024</v>
+        <v>12.26164809078947</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.10524174519024</v>
+        <v>-18.39994723620608</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.10524174519024</v>
+        <v>1.620635032164198</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.10524174519024</v>
+        <v>6.650461585379997</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.10524174519024</v>
+        <v>-9.36657408915649</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.10524174519024</v>
+        <v>13.20896743997836</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.10524174519024</v>
+        <v>19.62411811673955</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.10524174519024</v>
+        <v>15.86422289898159</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.10524174519024</v>
+        <v>26.65813199400194</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.10524174519024</v>
+        <v>30.6694938697115</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.883824830011651</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.10524174519024</v>
+        <v>16.08800754927408</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.10524174519024</v>
+        <v>23.61124867365417</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>30.10524174519024</v>
+        <v>-7.284701885178567</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.10524174519024</v>
+        <v>11.59530812668406</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.10524174519024</v>
+        <v>17.48335336303414</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.10524174519024</v>
+        <v>-13.19956656356358</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.10524174519024</v>
+        <v>6.82799643185869</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.10524174519024</v>
+        <v>11.86096143557772</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.159295675261507</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.10524174519024</v>
+        <v>18.42465021266234</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.10524174519024</v>
+        <v>24.84218505243306</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.10524174519024</v>
+        <v>21.0855412148699</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.10524174519024</v>
+        <v>31.88601139016513</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.10524174519024</v>
+        <v>35.89826436014077</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.10524174519024</v>
+        <v>0.32988512121646</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.10524174519024</v>
+        <v>21.31695012506206</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.10524174519024</v>
+        <v>28.8400790998251</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.10524174519024</v>
+        <v>0.4774736908491768</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.10524174519024</v>
+        <v>19.35910999150034</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.10524174519024</v>
+        <v>25.24849170176769</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.430182065735341</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.10524174519024</v>
+        <v>14.59999137481809</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.10524174519024</v>
+        <v>19.63339052271162</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.10524174519024</v>
+        <v>3.613249212683098</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.10524174519024</v>
+        <v>26.19892827510231</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>30.10524174519024</v>
+        <v>32.61797286717449</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.10524174519024</v>
+        <v>28.86600130181732</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.10524174519024</v>
+        <v>39.66718146570342</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.10524174519024</v>
+        <v>43.68081797578229</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.10524174519024</v>
+        <v>8.107005047296109</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.10524174519024</v>
+        <v>29.09573219004805</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.10524174519024</v>
+        <v>36.61990920509884</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>30.10524174519024</v>
+        <v>-19.56782255744686</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.697688012931355</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.10524174519024</v>
+        <v>5.187788346029304</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.10524174519024</v>
+        <v>-25.47221399421399</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.453175296985666</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.4238540773818222</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.10524174519024</v>
+        <v>-16.43981496958652</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.10524174519024</v>
+        <v>6.134104061843157</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.10524174519024</v>
+        <v>12.54875226413973</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.10524174519024</v>
+        <v>8.789446046714186</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.10524174519024</v>
+        <v>19.58288659167105</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.10524174519024</v>
+        <v>23.59401807368844</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.10524174519024</v>
+        <v>-11.95718242051278</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.10524174519024</v>
+        <v>9.013132488019703</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.10524174519024</v>
+        <v>16.53576348945607</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.10524174519024</v>
+        <v>-14.35433433823467</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.10524174519024</v>
+        <v>4.524231408708413</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.10524174519024</v>
+        <v>10.41178160021745</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.10524174519024</v>
+        <v>-20.26954447217266</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.2435253086138864</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.10524174519024</v>
+        <v>4.788934258109332</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>30.10524174519024</v>
+        <v>-11.23024783452998</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.10524174519024</v>
+        <v>11.35207526553021</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.10524174519024</v>
+        <v>17.76910752303392</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.10524174519024</v>
+        <v>14.01305240934748</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.10524174519024</v>
+        <v>24.8130537987635</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.10524174519024</v>
+        <v>28.82507631470609</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.741184277368991</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.10524174519024</v>
+        <v>14.2443626263237</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.10524174519024</v>
+        <v>21.76688153086779</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.592619667324318</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.10524174519024</v>
+        <v>12.28757231040315</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.10524174519024</v>
+        <v>18.17645888007489</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.10524174519024</v>
+        <v>-12.50062122790071</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.10524174519024</v>
+        <v>7.528008288005633</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.10524174519024</v>
+        <v>12.56090194181256</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.458164296140655</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.10524174519024</v>
+        <v>19.12589191438989</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.10524174519024</v>
+        <v>25.54443382739616</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.10524174519024</v>
+        <v>21.79305085523542</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.10524174519024</v>
+        <v>32.59376217064521</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.10524174519024</v>
+        <v>36.6071681565865</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.10524174519024</v>
+        <v>1.035474211452577</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.10524174519024</v>
+        <v>22.02268315096653</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.10524174519024</v>
+        <v>29.54624997311388</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.609584892631876</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.10524174519024</v>
+        <v>15.26283622139128</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.10524174519024</v>
+        <v>21.15027436053007</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.10524174519024</v>
+        <v>-9.514239989209688</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.10524174519024</v>
+        <v>10.5071244863921</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.10524174519024</v>
+        <v>15.53857009508651</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.4802414042610117</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.10524174519024</v>
+        <v>22.09640919473729</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.10524174519024</v>
+        <v>28.51301825957277</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.10524174519024</v>
+        <v>24.75270887703418</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.10524174519024</v>
+        <v>35.54778849979861</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.10524174519024</v>
+        <v>39.55980386543415</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.10524174519024</v>
+        <v>4.005102481971601</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.10524174519024</v>
+        <v>24.97775357052744</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.10524174519024</v>
+        <v>32.50254835915477</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.10524174519024</v>
+        <v>1.601820982153907</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.10524174519024</v>
+        <v>20.48267419268874</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.10524174519024</v>
+        <v>26.37218641801307</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.313653835305178</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.10524174519024</v>
+        <v>15.71469189252586</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.10524174519024</v>
+        <v>20.74927619409497</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.10524174519024</v>
+        <v>4.727242409507465</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.10524174519024</v>
+        <v>27.31229794138498</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.10524174519024</v>
+        <v>33.73129134420883</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.10524174519024</v>
+        <v>29.97423354585252</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.10524174519024</v>
+        <v>40.7758747970568</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.10524174519024</v>
+        <v>44.78878134341294</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.10524174519024</v>
+        <v>9.21901842444667</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.10524174519024</v>
+        <v>30.20690303552616</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.10524174519024</v>
+        <v>37.73158558125958</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.10524174519024</v>
+        <v>9.359795607158542</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.10524174519024</v>
+        <v>28.24227522384687</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.10524174519024</v>
+        <v>34.13312402848935</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.10524174519024</v>
+        <v>3.451530514190647</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.10524174519024</v>
+        <v>23.48248683105866</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.10524174519024</v>
+        <v>28.51750535391038</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.10524174519024</v>
+        <v>12.49558694024612</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.10524174519024</v>
+        <v>35.08237579010181</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.10524174519024</v>
+        <v>41.50287905615157</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.10524174519024</v>
+        <v>37.75049419770862</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.10524174519024</v>
+        <v>48.55284559341446</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.10524174519024</v>
+        <v>52.56713560122073</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.10524174519024</v>
+        <v>16.99193866441582</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.10524174519024</v>
+        <v>37.98148563852912</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.10524174519024</v>
+        <v>45.50721635383245</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.10524174519024</v>
+        <v>0.5331565845731738</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.10524174519024</v>
+        <v>19.40641051330537</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.10524174519024</v>
+        <v>25.29270806776564</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.369204141978418</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.10524174519024</v>
+        <v>14.65320002501862</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.10524174519024</v>
+        <v>19.68336776132223</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.10524174519024</v>
+        <v>3.665240913105247</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.10524174519024</v>
+        <v>26.24242377844204</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.10524174519024</v>
+        <v>32.65790305020157</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.10524174519024</v>
+        <v>28.89771144374235</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.10524174519024</v>
+        <v>39.6923334943056</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.10524174519024</v>
+        <v>43.70381293854011</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.10524174519024</v>
+        <v>8.147643056222972</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.10524174519024</v>
+        <v>29.12163080178315</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.10524174519024</v>
+        <v>36.64514902782484</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.10524174519024</v>
+        <v>5.742635313937893</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.10524174519024</v>
+        <v>24.62432075494193</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.10524174519024</v>
+        <v>30.51269208125408</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.1705448552849766</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.10524174519024</v>
+        <v>19.85884004892675</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.10524174519024</v>
+        <v>24.89214606985358</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.10524174519024</v>
+        <v>8.87079791618002</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.10524174519024</v>
+        <v>31.45638516332853</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.10524174519024</v>
+        <v>37.87424843729575</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.10524174519024</v>
+        <v>34.11730837248665</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.10524174519024</v>
+        <v>44.91849152937634</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.10524174519024</v>
+        <v>48.93086195559685</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.10524174519024</v>
+        <v>13.35963176630075</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.10524174519024</v>
+        <v>34.34885203473395</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.10524174519024</v>
+        <v>41.87225805460189</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.10524174519024</v>
+        <v>13.50042476402295</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.10524174519024</v>
+        <v>32.38373636025101</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.10524174519024</v>
+        <v>38.27344431985232</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.10524174519024</v>
+        <v>7.594453884687066</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.10524174519024</v>
+        <v>27.62644909969735</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.10524174519024</v>
+        <v>32.6601894189012</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.10524174519024</v>
+        <v>16.63895662552913</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.10524174519024</v>
+        <v>39.22627690132258</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.10524174519024</v>
+        <v>45.64565009649964</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.10524174519024</v>
+        <v>41.89338243524553</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.10524174519024</v>
+        <v>52.69527561595378</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.10524174519024</v>
+        <v>56.70902965554278</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.10524174519024</v>
+        <v>21.13236582314725</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.10524174519024</v>
+        <v>42.12324821136296</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.10524174519024</v>
+        <v>49.64770238804356</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.10524174519024</v>
+        <v>2.59664277864071</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.10524174519024</v>
+        <v>21.4710119171804</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.10524174519024</v>
+        <v>27.35874147611177</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.306072609403106</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.10524174519024</v>
+        <v>16.71749710794226</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.10524174519024</v>
+        <v>21.74922670070411</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.10524174519024</v>
+        <v>5.728568576071932</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.10524174519024</v>
+        <v>28.30725155619886</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.10524174519024</v>
+        <v>34.72415925617581</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.10524174519024</v>
+        <v>30.96353006970712</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.10524174519024</v>
+        <v>41.75935569819653</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.10524174519024</v>
+        <v>45.77153423435634</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.10524174519024</v>
+        <v>10.21378908130218</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.10524174519024</v>
+        <v>31.18851862561739</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.10524174519024</v>
+        <v>38.71366993691633</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.10524174519024</v>
+        <v>7.810672484108675</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.10524174519024</v>
+        <v>26.69347395694642</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.10524174519024</v>
+        <v>32.58327749383936</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.10524174519024</v>
+        <v>1.897137048550842</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.10524174519024</v>
+        <v>21.92768818991344</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.10524174519024</v>
+        <v>26.96255637923404</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.10524174519024</v>
+        <v>10.93867626797241</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.10524174519024</v>
+        <v>33.52576442281149</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.10524174519024</v>
+        <v>39.94505635957937</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.10524174519024</v>
+        <v>36.18767885712377</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.10524174519024</v>
+        <v>46.99006629618422</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.10524174519024</v>
+        <v>51.00313597918436</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.10524174519024</v>
+        <v>15.43032895348123</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.10524174519024</v>
+        <v>36.4202924033862</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.10524174519024</v>
+        <v>43.94533125656294</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.10524174519024</v>
+        <v>15.56591000482448</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.10524174519024</v>
+        <v>34.45033783954038</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.10524174519024</v>
+        <v>40.3414780387274</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.10524174519024</v>
+        <v>9.65958458585855</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.10524174519024</v>
+        <v>29.69274629270994</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.10524174519024</v>
+        <v>34.72804876162563</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.10524174519024</v>
+        <v>18.70428381719971</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.10524174519024</v>
+        <v>41.29310523950021</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.10524174519024</v>
+        <v>47.71390713523674</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.10524174519024</v>
+        <v>43.96120273582601</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.10524174519024</v>
+        <v>54.76430037366428</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.10524174519024</v>
+        <v>58.77875356964175</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.10524174519024</v>
+        <v>23.2005124317739</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.10524174519024</v>
+        <v>44.19213828727872</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.10524174519024</v>
+        <v>51.71822541579392</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.10524174519024</v>
+        <v>1.285224246602223</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.10524174519024</v>
+        <v>20.15758826878179</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.10524174519024</v>
+        <v>26.04530517571645</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.10524174519024</v>
+        <v>-4.617057300384619</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.10524174519024</v>
+        <v>15.40428395813812</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.10524174519024</v>
+        <v>20.43607702277147</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.10524174519024</v>
+        <v>4.416224664518079</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.10524174519024</v>
+        <v>26.99277284431029</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.10524174519024</v>
+        <v>33.40965367802657</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.10524174519024</v>
+        <v>29.64912819248574</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.10524174519024</v>
+        <v>40.44431064853761</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.10524174519024</v>
+        <v>44.45645019792191</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.10524174519024</v>
+        <v>8.901344288706962</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.10524174519024</v>
+        <v>29.87392919461074</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.10524174519024</v>
+        <v>37.39906772257693</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.10524174519024</v>
+        <v>6.500737702416739</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.10524174519024</v>
+        <v>25.381533757712</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.10524174519024</v>
+        <v>31.27132474621241</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.10524174519024</v>
+        <v>0.5876368442152788</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.10524174519024</v>
+        <v>20.6159593038157</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.10524174519024</v>
+        <v>25.65089103703319</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.10524174519024</v>
+        <v>9.627816449296727</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.10524174519024</v>
+        <v>32.21276950056101</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.10524174519024</v>
+        <v>38.63203466297107</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.10524174519024</v>
+        <v>34.87476040318374</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.10524174519024</v>
+        <v>45.67650445922122</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.10524174519024</v>
+        <v>49.6895351864769</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.10524174519024</v>
+        <v>14.1193678002799</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.10524174519024</v>
+        <v>35.10718603697551</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.10524174519024</v>
+        <v>42.63221229251398</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.10524174519024</v>
+        <v>14.25549385605204</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.10524174519024</v>
+        <v>33.13791626212507</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.10524174519024</v>
+        <v>39.02904379295244</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.10524174519024</v>
+        <v>8.349602863910189</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.10524174519024</v>
+        <v>28.38053583000878</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.10524174519024</v>
+        <v>33.41590175917058</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.10524174519024</v>
+        <v>17.39294232909155</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.10524174519024</v>
+        <v>39.97962864007006</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.10524174519024</v>
+        <v>46.40040363424934</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.10524174519024</v>
+        <v>42.64780249421101</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.10524174519024</v>
+        <v>53.45025670182183</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.10524174519024</v>
+        <v>57.46467084134308</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.10524174519024</v>
+        <v>21.88906957443946</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.10524174519024</v>
+        <v>42.87855018186023</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>30.10524174519024</v>
+        <v>50.40462459428436</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.9381396673934042</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.10524174519024</v>
+        <v>17.93644068974201</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.10524174519024</v>
+        <v>23.82328037134804</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.840804994972888</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.10524174519024</v>
+        <v>13.18303709874094</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.10524174519024</v>
+        <v>18.21370554802256</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.10524174519024</v>
+        <v>2.193939474321308</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.10524174519024</v>
+        <v>24.77269840233116</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.10524174519024</v>
+        <v>31.18874953531467</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.10524174519024</v>
+        <v>27.42829501644136</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.10524174519024</v>
+        <v>38.22372879616084</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.10524174519024</v>
+        <v>42.23532007148007</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.10524174519024</v>
+        <v>6.677153821406176</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.10524174519024</v>
+        <v>27.65266181740848</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.10524174519024</v>
+        <v>35.17684838050904</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.10524174519024</v>
+        <v>4.274494257553254</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.10524174519024</v>
+        <v>23.1575066673876</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.10524174519024</v>
+        <v>29.04642024388333</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.638990718781731</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.10524174519024</v>
+        <v>18.39183262517217</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.10524174519024</v>
+        <v>23.42563953542667</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.10524174519024</v>
+        <v>7.402651823566242</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.10524174519024</v>
+        <v>29.98981565066644</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.10524174519024</v>
+        <v>36.40825092924085</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.10524174519024</v>
+        <v>32.6510480852251</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.10524174519024</v>
+        <v>43.45304343688967</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.10524174519024</v>
+        <v>47.46552568879615</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.10524174519024</v>
+        <v>11.89229817434447</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.10524174519024</v>
+        <v>32.88303967774793</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.10524174519024</v>
+        <v>40.40711395681767</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.10524174519024</v>
+        <v>12.03094118270864</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.10524174519024</v>
+        <v>30.91557988680965</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.10524174519024</v>
+        <v>36.80583013583605</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.10524174519024</v>
+        <v>6.124666011977109</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.10524174519024</v>
+        <v>26.15809981495515</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.10524174519024</v>
+        <v>31.1923410299227</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>30.10524174519024</v>
+        <v>15.16946853600011</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.10524174519024</v>
+        <v>37.7583655482927</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.10524174519024</v>
+        <v>44.17831079089028</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.10524174519024</v>
+        <v>40.4257808238779</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.10524174519024</v>
+        <v>51.22848629672266</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.10524174519024</v>
+        <v>55.24235222977113</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.10524174519024</v>
+        <v>19.66369073661671</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.10524174519024</v>
+        <v>40.65609449071978</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.10524174519024</v>
+        <v>48.18121699062264</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.10524174519024</v>
+        <v>-8.548327587117871</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.10524174519024</v>
+        <v>10.32271596158993</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.10524174519024</v>
+        <v>16.209804523214</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.10524174519024</v>
+        <v>-14.4526754708822</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.10524174519024</v>
+        <v>5.567287984773127</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.10524174519024</v>
+        <v>10.59847248067824</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.10524174519024</v>
+        <v>-5.41983755794168</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.10524174519024</v>
+        <v>17.15513969958662</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.10524174519024</v>
+        <v>23.57135580386891</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.10524174519024</v>
+        <v>19.81108587019211</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.10524174519024</v>
+        <v>30.6053535087215</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.10524174519024</v>
+        <v>34.61717385641741</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.9354173153776237</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.10524174519024</v>
+        <v>20.03582689619683</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.10524174519024</v>
+        <v>27.56015770619119</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.329227134463128</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.10524174519024</v>
+        <v>15.5502483095053</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.10524174519024</v>
+        <v>21.43941101118541</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.10524174519024</v>
+        <v>-9.244393364772652</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.10524174519024</v>
+        <v>10.78255121188003</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.10524174519024</v>
+        <v>15.81687441712556</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.204657894330655</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.10524174519024</v>
+        <v>22.378724101239</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.10524174519024</v>
+        <v>28.79732457081768</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.10524174519024</v>
+        <v>25.04030535324413</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.10524174519024</v>
+        <v>35.84113431913299</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.10524174519024</v>
+        <v>39.85384588427966</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.10524174519024</v>
+        <v>4.28619339465153</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.10524174519024</v>
+        <v>25.27267059923035</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.10524174519024</v>
+        <v>32.79688937982853</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.10524174519024</v>
+        <v>4.427601396758785</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.10524174519024</v>
+        <v>23.30870309691879</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.10524174519024</v>
+        <v>29.19920222607349</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.480355780661132</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.10524174519024</v>
+        <v>18.54919921543744</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.10524174519024</v>
+        <v>23.5839565612802</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.10524174519024</v>
+        <v>7.562539680044704</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.10524174519024</v>
+        <v>30.14765482990178</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.10524174519024</v>
+        <v>36.56776499123525</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.10524174519024</v>
+        <v>32.81541845764154</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.10524174519024</v>
+        <v>43.61695746844968</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.10524174519024</v>
+        <v>47.63105234922266</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.10524174519024</v>
+        <v>12.05796642885756</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.10524174519024</v>
+        <v>33.04610581926754</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.10524174519024</v>
+        <v>40.57137262087149</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.10524174519024</v>
+        <v>-2.490967934171824</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.10524174519024</v>
+        <v>16.38109941563441</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.10524174519024</v>
+        <v>22.26891094568729</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.10524174519024</v>
+        <v>-8.393612065417489</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.10524174519024</v>
+        <v>11.62738589151153</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.10524174519024</v>
+        <v>16.65930259370866</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.10524174519024</v>
+        <v>0.6394789454587162</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.10524174519024</v>
+        <v>23.2157114137597</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.10524174519024</v>
+        <v>29.63267919379431</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.10524174519024</v>
+        <v>25.87235726987869</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.10524174519024</v>
+        <v>36.66743970270606</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.10524174519024</v>
+        <v>40.67965919015039</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.10524174519024</v>
+        <v>5.124904920420743</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.10524174519024</v>
+        <v>26.09724057499549</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.10524174519024</v>
+        <v>33.62244736740188</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.10524174519024</v>
+        <v>2.724152237759466</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.10524174519024</v>
+        <v>21.6046516450563</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.10524174519024</v>
+        <v>27.4945373273877</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.10524174519024</v>
+        <v>-3.189311158492462</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.10524174519024</v>
+        <v>16.83866802851029</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.10524174519024</v>
+        <v>21.87372347384989</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.10524174519024</v>
+        <v>5.850677460748368</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.10524174519024</v>
+        <v>28.43531482187499</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.10524174519024</v>
+        <v>34.85466699935868</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.10524174519024</v>
+        <v>31.09759620262825</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.10524174519024</v>
+        <v>41.89924024947292</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.10524174519024</v>
+        <v>45.91235095225026</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.10524174519024</v>
+        <v>10.34253512646869</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.10524174519024</v>
+        <v>31.33010412723005</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.10524174519024</v>
+        <v>38.85519872771265</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.10524174519024</v>
+        <v>10.4792867855097</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.10524174519024</v>
+        <v>29.3614125437064</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.10524174519024</v>
+        <v>35.25263473811269</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.10524174519024</v>
+        <v>4.573033226299724</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.10524174519024</v>
+        <v>24.6036229221168</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.10524174519024</v>
+        <v>29.63911253973769</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.10524174519024</v>
+        <v>13.61618173297374</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.10524174519024</v>
+        <v>36.20255235558766</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.10524174519024</v>
+        <v>42.62341433163674</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.10524174519024</v>
+        <v>38.8710166775857</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.10524174519024</v>
+        <v>49.67337085514787</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.10524174519024</v>
+        <v>53.68786493601537</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.10524174519024</v>
+        <v>18.11261528682079</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.10524174519024</v>
+        <v>39.10184663957698</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>30.10524174519024</v>
+        <v>46.62798937162783</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.10524174519024</v>
+        <v>4.15223184318101</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.10524174519024</v>
+        <v>23.02478847810725</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>30.10524174519024</v>
+        <v>28.911586776301</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.749639647970373</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.10524174519024</v>
+        <v>18.27217978382309</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.10524174519024</v>
+        <v>23.30289817911129</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.10524174519024</v>
+        <v>7.284676964857493</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.10524174519024</v>
+        <v>29.86125248929356</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.10524174519024</v>
+        <v>36.27721681531766</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.10524174519024</v>
+        <v>32.51689464931614</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>30.10524174519024</v>
+        <v>43.3114161885906</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.10524174519024</v>
+        <v>47.32287301641126</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.10524174519024</v>
+        <v>11.7689266375019</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.10524174519024</v>
+        <v>32.7415542943791</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.10524174519024</v>
+        <v>40.26582181922326</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.10524174519024</v>
+        <v>9.364944781668822</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.10524174519024</v>
+        <v>28.24593298568372</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.10524174519024</v>
+        <v>34.13480494134176</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.10524174519024</v>
+        <v>3.452254044228805</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.10524174519024</v>
+        <v>23.48105424580607</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.10524174519024</v>
+        <v>28.51491083657838</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.10524174519024</v>
+        <v>12.49346828700963</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.10524174519024</v>
+        <v>35.07844823717771</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.10524174519024</v>
+        <v>41.49679646385964</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>30.10524174519024</v>
+        <v>37.73972589799568</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>30.10524174519024</v>
+        <v>48.54080852967051</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.10524174519024</v>
+        <v>52.55315638683275</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.10524174519024</v>
+        <v>16.98414969748891</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.10524174519024</v>
+        <v>37.97201000856721</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.10524174519024</v>
+        <v>45.49616489769305</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.10524174519024</v>
+        <v>17.12045623999829</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.10524174519024</v>
+        <v>36.00307067931514</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.10524174519024</v>
+        <v>41.89327922823502</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.10524174519024</v>
+        <v>11.21497484552587</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.10524174519024</v>
+        <v>31.24638543952919</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.10524174519024</v>
+        <v>36.28067626542592</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.10524174519024</v>
+        <v>20.25934890418788</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.10524174519024</v>
+        <v>42.84606197313092</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.10524174519024</v>
+        <v>49.26592007598428</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.10524174519024</v>
+        <v>45.51352217276444</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.10524174519024</v>
+        <v>56.31531497608766</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.10524174519024</v>
+        <v>60.3290463042852</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.10524174519024</v>
+        <v>24.75460581417296</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.10524174519024</v>
+        <v>45.74412835486628</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>30.10524174519024</v>
+        <v>53.26933143907154</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.10524174519024</v>
+        <v>-0.3779641263360709</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.10524174519024</v>
+        <v>18.49655313626026</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.10524174519024</v>
+        <v>24.3834366521858</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.10524174519024</v>
+        <v>-6.280472987774903</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.10524174519024</v>
+        <v>13.74330206287372</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.10524174519024</v>
+        <v>18.77402075033437</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>30.10524174519024</v>
+        <v>2.754204594004516</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.10524174519024</v>
+        <v>25.33287310894142</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.10524174519024</v>
+        <v>31.74896193473073</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.10524174519024</v>
+        <v>27.98858645937757</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.10524174519024</v>
+        <v>38.7840168568752</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.10524174519024</v>
+        <v>42.79559063219874</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.10524174519024</v>
+        <v>7.237606083668464</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.10524174519024</v>
+        <v>28.21306523875937</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.10524174519024</v>
+        <v>35.73724153797757</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.10524174519024</v>
+        <v>4.83507865510823</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.10524174519024</v>
+        <v>23.71802792191026</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.10524174519024</v>
+        <v>29.60698530983806</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.10524174519024</v>
+        <v>-1.078249754474502</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.10524174519024</v>
+        <v>18.95250650914117</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.10524174519024</v>
+        <v>23.98636361488779</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.10524174519024</v>
+        <v>7.963325846862102</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>30.10524174519024</v>
+        <v>30.55039921122993</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.10524174519024</v>
+        <v>36.96887216030773</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>30.10524174519024</v>
+        <v>33.21174828580256</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.10524174519024</v>
+        <v>44.01374023548719</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.10524174519024</v>
+        <v>48.02620498101105</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.10524174519024</v>
+        <v>12.45315924454443</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.10524174519024</v>
+        <v>33.44385179071053</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>30.10524174519024</v>
+        <v>40.96791580688698</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.10524174519024</v>
+        <v>12.59084671366649</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.10524174519024</v>
+        <v>31.47542227007765</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.10524174519024</v>
+        <v>37.36571629230939</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.10524174519024</v>
+        <v>6.684728086162789</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.10524174519024</v>
+        <v>26.71809479271887</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.10524174519024</v>
+        <v>31.75238618162443</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.10524174519024</v>
+        <v>15.72946358123276</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.10524174519024</v>
+        <v>38.31827012674448</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.10524174519024</v>
+        <v>44.73825299786658</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.10524174519024</v>
+        <v>40.98580203592023</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.10524174519024</v>
+        <v>51.78850410325099</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.10524174519024</v>
+        <v>55.80235250051264</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>30.10524174519024</v>
+        <v>20.22387284974029</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.10524174519024</v>
+        <v>41.21622764754947</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>30.10524174519024</v>
+        <v>48.74133986749511</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-4.411216374673888</v>
+        <v>-4.411216374688895</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.46126789670374</v>
+        <v>14.46126789666861</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.34909679767911</v>
+        <v>20.34909679768331</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-10.31536827201395</v>
+        <v>-10.3153682719945</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.706086548056231</v>
+        <v>9.706086548044748</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.73802006456212</v>
+        <v>14.73802006454813</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.281786704159419</v>
+        <v>-1.281786704156008</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.29491861803141</v>
+        <v>21.29491861804949</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.71190273064864</v>
+        <v>27.71190273060533</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.95141944024503</v>
+        <v>23.95141944025935</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.7467312364128</v>
+        <v>34.74673123641598</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.75897337508052</v>
+        <v>38.75897337509666</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.203649659200021</v>
+        <v>3.203649659226624</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.17645155071152</v>
+        <v>24.17645155068855</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.70161413325097</v>
+        <v>31.70161413324437</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8070137134905444</v>
+        <v>0.8070137135014583</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.68793035785101</v>
+        <v>19.68793035793446</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.57783345803686</v>
+        <v>25.57783345809848</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-5.107957615368338</v>
+        <v>-5.107957615364928</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.92047873851122</v>
+        <v>14.9204787384679</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.95555106720932</v>
+        <v>19.95555106714646</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.932521959213357</v>
+        <v>3.932521959238596</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.51763248674994</v>
+        <v>26.51763248668992</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.93700104960173</v>
+        <v>32.93700104959787</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.17976883453143</v>
+        <v>29.17976883452529</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.98164241710394</v>
+        <v>39.98164241710462</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43.99477579919237</v>
+        <v>43.99477579921715</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.424389939675205</v>
+        <v>8.424389939655196</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.41242567728584</v>
+        <v>29.41242567726935</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.93747606590811</v>
+        <v>36.93747606592437</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.562835702862269</v>
+        <v>8.562835702877731</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.4453786923256</v>
+        <v>27.4453786923181</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.33661835727132</v>
+        <v>33.33661835727109</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.655074162617705</v>
+        <v>2.655074162623389</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.68612104535843</v>
+        <v>22.68612104535013</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.72162759973518</v>
+        <v>27.72162759969778</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>11.69871376147266</v>
+        <v>11.69871376153064</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.28555754800918</v>
+        <v>34.28555754798815</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.7064359571862</v>
+        <v>40.70643595717245</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.95387685790551</v>
+        <v>36.95387685787436</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.75646057121087</v>
+        <v>47.75646057116914</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>51.77097737543265</v>
+        <v>51.77097737541276</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.19515765313103</v>
+        <v>16.19515765309556</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.18485570751413</v>
+        <v>37.1848557075039</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.71095427057644</v>
+        <v>44.7109542705055</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.146583715099307</v>
+        <v>3.146583715127957</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.02149196378006</v>
+        <v>22.02149196378734</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.90797254058445</v>
+        <v>27.90797254058627</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2.755126100204809</v>
+        <v>-2.755126100245281</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.26910770570298</v>
+        <v>17.2691077056882</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.2994031455526</v>
+        <v>22.29940314552713</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.280029550004468</v>
+        <v>6.280029550021066</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.85901685291246</v>
+        <v>28.85901685292417</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.27468977018525</v>
+        <v>35.27468977014966</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.51424199997022</v>
+        <v>31.51424199998659</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.30949183748207</v>
+        <v>42.30949183751163</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.32108159168983</v>
+        <v>46.32108159175168</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.76274951880354</v>
+        <v>10.76274951876603</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.73826412487839</v>
+        <v>31.73826412492489</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.2620891004414</v>
+        <v>39.2620891004397</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.356372741000353</v>
+        <v>8.356372741042872</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.23971272372561</v>
+        <v>27.23971272367093</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.12826696738072</v>
+        <v>33.12826696735787</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.443843027062297</v>
+        <v>2.443843027041378</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.47505769126114</v>
+        <v>22.47505769118645</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.50849135959292</v>
+        <v>27.50849135954006</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.48589665828676</v>
+        <v>11.48589665828176</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.07328856535803</v>
+        <v>34.07328856534393</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.49134539154549</v>
+        <v>40.49134539154799</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.73414954724858</v>
+        <v>36.73414954720128</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.53596070374503</v>
+        <v>47.53596070374867</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>51.5484414187428</v>
+        <v>51.54844141868686</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.9750487189306</v>
+        <v>15.97504871893129</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.96579631833451</v>
+        <v>36.96579631837646</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.48950884070454</v>
+        <v>44.48950884071921</v>
       </c>
     </row>
     <row r="77">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.99910420876385</v>
+        <v>34.99910420869382</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.8889951438221</v>
+        <v>40.88899514378572</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.20881776873152</v>
+        <v>10.20881776873561</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.24264285205087</v>
+        <v>30.24264285205008</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.27651083020798</v>
+        <v>35.2765108302472</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.25403148396485</v>
+        <v>19.25403148394711</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.84315648783779</v>
+        <v>41.84315648786712</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.26272330376598</v>
+        <v>48.26272330375939</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.51019992038009</v>
+        <v>44.51019992037349</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>55.31272117195935</v>
+        <v>55.31272117192502</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>59.32658553743936</v>
+        <v>59.32658553741594</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.74775895192242</v>
+        <v>23.74775895195448</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44.74016876520243</v>
+        <v>44.74016876518515</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>52.264929532788</v>
+        <v>52.26492953279437</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.499741219972332</v>
+        <v>2.499741219986429</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.37431721931345</v>
+        <v>21.37431721929151</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.26062591541305</v>
+        <v>27.26062591538384</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-3.402664991151898</v>
+        <v>-3.402664991152353</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.62128724906396</v>
+        <v>16.62128724906476</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21.65133469315792</v>
+        <v>21.65133469316531</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.632519514140579</v>
+        <v>5.632519514148083</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.21120598071938</v>
+        <v>28.21120598070392</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.62671697115847</v>
+        <v>34.6267169711271</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.86635993722056</v>
+        <v>30.86635993721829</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.66145541400776</v>
+        <v>41.66145541403652</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.67286059007431</v>
+        <v>45.67286059012217</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.1153112913153</v>
+        <v>10.11531129136351</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.09036178876208</v>
+        <v>31.09036178878823</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.61399835459274</v>
+        <v>38.61399835467164</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>7.715434185206771</v>
+        <v>7.715434185192901</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.59844204440007</v>
+        <v>26.5984420443663</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.48682440232794</v>
+        <v>32.48682440230532</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.802208539416863</v>
+        <v>1.802208539442329</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.83314185832891</v>
+        <v>21.83314185836597</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.86632750777975</v>
+        <v>26.86632750779135</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.8442913414256</v>
+        <v>10.8442913414663</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.43138253446004</v>
+        <v>33.43138253447061</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.84927742873019</v>
+        <v>39.84927742873371</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.09217204880547</v>
+        <v>36.09217204874521</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.89382884620981</v>
+        <v>46.89382884626518</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.90612494739871</v>
+        <v>50.90612494734812</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.3335147646142</v>
+        <v>15.33351476461989</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.32379839851005</v>
+        <v>36.32379839852335</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.84732256778356</v>
+        <v>43.8473225678046</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>15.47245630826459</v>
+        <v>15.47245630823071</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.35709039268265</v>
+        <v>34.35709039261967</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.24680943571882</v>
+        <v>40.24680943572336</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.566439989452004</v>
+        <v>9.566439989506119</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.5999837076237</v>
+        <v>29.59998370765599</v>
       </c>
     </row>
     <row r="127">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>18.61168281714349</v>
+        <v>18.61168281719464</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.20050711112451</v>
+        <v>41.20050711112462</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.61991198739149</v>
+        <v>47.619911987365</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.86747915949609</v>
+        <v>43.86747915948335</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.6698460259236</v>
+        <v>54.66984602595362</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.68352583220398</v>
+        <v>58.68352583225492</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.10548174917748</v>
+        <v>23.10548174919635</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.09742758102622</v>
+        <v>44.09742758099814</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.62199997739246</v>
+        <v>51.62199997738894</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-6.331880232576584</v>
+        <v>-6.331880232584201</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.54005129091381</v>
+        <v>12.5400512909179</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.42744600137523</v>
+        <v>18.4274460013227</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-12.23620235954202</v>
+        <v>-12.23620235953691</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>7.784640408179182</v>
+        <v>7.784640408153489</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.81608863939634</v>
+        <v>12.81608863943113</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-3.202878720163842</v>
+        <v>-3.20287872014838</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>19.37322376143679</v>
+        <v>19.37322376142496</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.7897791640883</v>
+        <v>25.78977916410285</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.0295493210679</v>
+        <v>22.02954932108973</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.82461031070925</v>
+        <v>32.82461031073392</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.83667932681082</v>
+        <v>36.83667932680093</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1.282523716461849</v>
+        <v>1.282523716490726</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.25471271786322</v>
+        <v>22.25471271784856</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.77942677170817</v>
+        <v>29.77942677168009</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1.11524442274909</v>
+        <v>-1.115244422831854</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17.7651192598078</v>
+        <v>17.76511925977426</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>23.65458812971546</v>
+        <v>23.65458812968442</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-7.030386108880936</v>
+        <v>-7.030386108922773</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.99743797533896</v>
+        <v>12.99743797537716</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.03202496337012</v>
+        <v>18.0320249633783</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2.009835423519728</v>
+        <v>2.009835423509951</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.59434290170615</v>
+        <v>24.5943429017697</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.01328271239667</v>
+        <v>31.01328271242043</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.25630387570304</v>
+        <v>27.25630387566938</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.05792653148573</v>
+        <v>38.05792653145674</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.07088677965685</v>
+        <v>42.07088677962786</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.501669251095603</v>
+        <v>6.501669251140623</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.48909173058432</v>
+        <v>27.48909173057886</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.0136936060931</v>
+        <v>35.01369360605581</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6.641330108132745</v>
+        <v>6.641330108112964</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.5233201515695</v>
+        <v>25.52332015152573</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.41412553046113</v>
+        <v>31.41412553047443</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.7333980051612734</v>
+        <v>0.7333980052183442</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.76383262142239</v>
+        <v>20.76383262144433</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.79885378322846</v>
+        <v>25.79885378328497</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9.77677960541568</v>
+        <v>9.776779605373843</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.3630203575256</v>
+        <v>32.36302035750832</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.78346996307646</v>
+        <v>38.7834699630619</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.03116414988135</v>
+        <v>35.03116414989249</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.83349691440098</v>
+        <v>45.83349691435392</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.84784055591176</v>
+        <v>49.84784055589357</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>14.27318927029527</v>
+        <v>14.27318927030823</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.26227403820751</v>
+        <v>35.26227403821296</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.78792402493939</v>
+        <v>42.7879240249403</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.071183709597147</v>
+        <v>3.071183709567361</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.94464148096408</v>
+        <v>21.94464148096169</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.83202216744898</v>
+        <v>27.83202216733131</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2.832060665204114</v>
+        <v>-2.832060665128285</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.1905109098589</v>
+        <v>17.19051090986197</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.22191828207182</v>
+        <v>22.22191828203237</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.202261404234417</v>
+        <v>6.202261404265112</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.77992247245599</v>
+        <v>28.77992247247043</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.19648836316053</v>
+        <v>35.1964883631827</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.43579123677004</v>
+        <v>31.43579123681893</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.2313826168551</v>
+        <v>42.23138261688557</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.2433807831798</v>
+        <v>46.24338078324142</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.68694933612737</v>
+        <v>10.68694933611213</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.66052945053563</v>
+        <v>31.66052945055086</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.1852679298858</v>
+        <v>39.18526792989194</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>8.290531332445919</v>
+        <v>8.290531332442281</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.17242125602142</v>
+        <v>27.17242125606667</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.06187593795543</v>
+        <v>33.06187593798067</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.376467434390673</v>
+        <v>2.376467434390445</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.40602034519695</v>
+        <v>22.40602034520093</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.44056630948982</v>
+        <v>27.44056630945242</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.41768760316658</v>
+        <v>11.41768760316272</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.00375366206588</v>
+        <v>34.00375366203859</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.42270379349377</v>
+        <v>40.42270379350445</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.66525789424763</v>
+        <v>36.66525789425968</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>47.46741094009478</v>
+        <v>47.46741094008637</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>51.480300253572</v>
+        <v>51.48030025362588</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.90880718320845</v>
+        <v>15.90880718321027</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.89762081236874</v>
+        <v>36.89762081234316</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>44.42224697717363</v>
+        <v>44.42224697716806</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.04400631160801</v>
+        <v>16.04400631161256</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.92752255614657</v>
+        <v>34.9275225561427</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.81831383975684</v>
+        <v>40.81831383980391</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.13715201258473</v>
+        <v>10.13715201261224</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.16931538639748</v>
+        <v>30.16931538642556</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.20429559657798</v>
+        <v>35.20429559654785</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.18153204082982</v>
+        <v>19.18153204082595</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.76933132518688</v>
+        <v>41.76933132521133</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.18979135441741</v>
+        <v>48.18979135441093</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.43701853344969</v>
+        <v>44.43701853340399</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>55.23988174801927</v>
+        <v>55.23988174799028</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.2541545338576</v>
+        <v>59.25415453389228</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.67722759360826</v>
+        <v>23.67722759364919</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44.66770357033288</v>
+        <v>44.66770357033356</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>52.19337795157826</v>
+        <v>52.19337795155461</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>6.999870909594886</v>
+        <v>6.999870909624445</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.87364778391717</v>
+        <v>25.87364778392081</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.75951922391452</v>
+        <v>31.75951922385927</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1.098516294822542</v>
+        <v>1.098516294849826</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.12166957595052</v>
+        <v>21.12166957595961</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.15142807408862</v>
+        <v>26.15142807410136</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.13319865648195</v>
+        <v>10.13319865643147</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>32.71076881005983</v>
+        <v>32.71076881006552</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.12580363588886</v>
+        <v>39.12580363587499</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.3650456597416</v>
+        <v>35.36504565976183</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.15985537847421</v>
+        <v>46.15985537847261</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.17085980522317</v>
+        <v>50.17085980530139</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>14.61519318653749</v>
+        <v>14.6151931866048</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.58899473251692</v>
+        <v>35.58899473250624</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.11203309267823</v>
+        <v>43.1120330927012</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>12.22111376292154</v>
+        <v>12.22111376295883</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.10332183400298</v>
+        <v>31.10332183406937</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.99126670704815</v>
+        <v>36.99126670706066</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.308940755569704</v>
+        <v>6.308940755512406</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.33907450884503</v>
+        <v>26.3390745088523</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.37197094409798</v>
+        <v>31.37197094413049</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.35052095467249</v>
+        <v>15.35052095465657</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37.93649517280191</v>
+        <v>37.93649517279805</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.35391364046818</v>
+        <v>44.35391364047227</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>40.596406919025</v>
+        <v>40.59640691905138</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>51.39777745161602</v>
+        <v>51.39777745159522</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>55.40967282294552</v>
+        <v>55.40967282291813</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.83894659694333</v>
+        <v>19.83894659701063</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.8279800394544</v>
+        <v>40.82798003947464</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>48.3509058789637</v>
+        <v>48.35090587894392</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.97295886673741</v>
+        <v>19.97295886672149</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.85679299548296</v>
+        <v>38.85679299551707</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.74607436088881</v>
+        <v>44.7460743608563</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.067994217063</v>
+        <v>14.06799421705641</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.10073806714733</v>
+        <v>34.1007380671853</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.13406868497093</v>
+        <v>39.13406868498934</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.11273403583122</v>
+        <v>23.11273403586669</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>45.70044117566913</v>
+        <v>45.70044117571642</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>52.11936942694165</v>
+        <v>52.11936942697075</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.36653503825623</v>
+        <v>48.36653503822713</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>59.16861569507232</v>
+        <v>59.16861569504549</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>63.18189451340486</v>
+        <v>63.18189451344874</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.60573495841053</v>
+        <v>27.60573495841235</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>48.59643050676168</v>
+        <v>48.59643050675656</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.12040445729353</v>
+        <v>56.12040445729933</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-6.788026015224734</v>
+        <v>-6.788026015318753</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.08285174999916</v>
+        <v>12.08285174994459</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.96951036430748</v>
+        <v>17.96951036428861</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-12.69111530257301</v>
+        <v>-12.69111530261121</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>7.328778528091942</v>
+        <v>7.328778528082847</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>12.3594604216634</v>
+        <v>12.35946042163247</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-3.658182752546015</v>
+        <v>-3.658182752501904</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.91650302900352</v>
+        <v>18.91650302903103</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.33226288311225</v>
+        <v>25.33226288311657</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.57245291441636</v>
+        <v>21.5724529144184</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.36632806564278</v>
+        <v>32.36632806561936</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.37783500969674</v>
+        <v>36.37783500966218</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.8259508725300684</v>
+        <v>0.8259508725264304</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.79694902911903</v>
+        <v>21.79694902917019</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.32071575539468</v>
+        <v>29.32071575539946</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1.565290063843651</v>
+        <v>-1.565290063857294</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.31401933309591</v>
+        <v>17.31401933307863</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.20275184951849</v>
+        <v>23.20275184956374</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-7.479197046937845</v>
+        <v>-7.479197046981501</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.54767772610061</v>
+        <v>12.54767772607151</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.58149807784734</v>
+        <v>17.5814980778653</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.560633277678374</v>
+        <v>1.560633277698837</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.14372354403512</v>
+        <v>24.14372354404581</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.56186750975693</v>
+        <v>30.5618675097683</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.80530811787143</v>
+        <v>26.80530811785779</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.60574428623197</v>
+        <v>37.60574428624754</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.61814235568856</v>
+        <v>41.61814235572301</v>
       </c>
     </row>
     <row r="299">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.03742816547905</v>
+        <v>27.03742816547746</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.56108271295629</v>
+        <v>34.56108271295106</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>6.19153028563009</v>
+        <v>6.191530285628726</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.07246573647221</v>
+        <v>25.07246573645538</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.96253471877825</v>
+        <v>30.96253471874938</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.28483181247638</v>
+        <v>0.2848318124625102</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.31431677558809</v>
+        <v>20.31431677556422</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.34857131005098</v>
+        <v>25.34857131003302</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>9.327822066984066</v>
+        <v>9.327822066968604</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.91264527002685</v>
+        <v>31.91264527001594</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.33229896134735</v>
+        <v>38.33229896132188</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.58041196301387</v>
+        <v>34.58041196301023</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>45.3815581612012</v>
+        <v>45.38155816116709</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.39533959569899</v>
+        <v>49.39533959567557</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13.82296155145449</v>
+        <v>13.82296155142175</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.81085411158237</v>
+        <v>34.81085411156816</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>42.33555672969332</v>
+        <v>42.33555672968275</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-11.7870295370097</v>
+        <v>-11.78702953710156</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>7.085583915344994</v>
+        <v>7.085583915253931</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.9730320864832</v>
+        <v>12.97303208641101</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-17.6905238212416</v>
+        <v>-17.69052382125308</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>2.33111340369582</v>
+        <v>2.331113403630223</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.362547435561321</v>
+        <v>7.362547435532331</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-8.65729461611814</v>
+        <v>-8.657294616085398</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.91949173407026</v>
+        <v>13.91949173410289</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.33612585367306</v>
+        <v>20.33612585364726</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.5761101316887</v>
+        <v>16.57611013167847</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.37156260769965</v>
+        <v>27.37156260768078</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>31.38366010326972</v>
+        <v>31.38366010326449</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-4.17203110275462</v>
+        <v>-4.172031102743706</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.80092978281611</v>
+        <v>16.80092978283157</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.3256137403918</v>
+        <v>24.32561374040544</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-6.571780592101579</v>
+        <v>-6.571780592180932</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.30926494315888</v>
+        <v>12.30926494315251</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>18.19878716632563</v>
+        <v>18.19878716633995</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-12.48609446198551</v>
+        <v>-12.48609446202018</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.542523992078184</v>
+        <v>7.542523991992351</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.57709665226791</v>
+        <v>12.57709665221504</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-3.445967314450929</v>
+        <v>-3.445967314460024</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.13922396349089</v>
+        <v>19.13922396347168</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.55824238414383</v>
+        <v>25.55824238410893</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.80147807733583</v>
+        <v>21.80147807733537</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.60349219561458</v>
+        <v>32.60349219562754</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.61648090831777</v>
+        <v>36.61648090827775</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.045728006920665</v>
+        <v>1.045728006871098</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.03392235903372</v>
+        <v>22.03392235901849</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.55849405122551</v>
+        <v>29.55849405124483</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.183718907533642</v>
+        <v>1.183718907512041</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.0663908369185</v>
+        <v>20.06639083692509</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.95724965680749</v>
+        <v>25.95724965675292</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-4.723385235410849</v>
+        <v>-4.723385235466328</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.30784377857143</v>
+        <v>15.30784377860418</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.34285069179968</v>
+        <v>20.34285069180605</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.319901889537999</v>
+        <v>4.319901889561873</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.90682645944632</v>
+        <v>26.90682645943347</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.3273547739406</v>
+        <v>33.32735477394685</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.57526340280041</v>
+        <v>29.57526340288659</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.37798775170624</v>
+        <v>40.37798775170533</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>44.39235989146793</v>
+        <v>44.39235989147248</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.816173044551572</v>
+        <v>8.816173044541568</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.80602981741678</v>
+        <v>29.80602981739314</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>37.33164967821624</v>
+        <v>37.33164967821533</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.764439334509046</v>
+        <v>6.764439334493357</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.63893125864255</v>
+        <v>25.63893125859844</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.5254361750779</v>
+        <v>31.52543617511678</v>
       </c>
     </row>
     <row r="365">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.88837946741414</v>
+        <v>20.88837946742494</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.91870678412333</v>
+        <v>25.91870678410502</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.89939077873127</v>
+        <v>9.899390778693981</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.47786615928423</v>
+        <v>32.47786615923046</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>38.89351405614882</v>
+        <v>38.89351405608049</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.13333251201156</v>
+        <v>35.13333251198542</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>45.92812847329326</v>
+        <v>45.92812847324733</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.93959639958614</v>
+        <v>49.93959639955703</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.38330755208953</v>
+        <v>14.38330755210022</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.35788889038956</v>
+        <v>35.35788889036978</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.88168948224249</v>
+        <v>42.88168948226455</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.97439884957639</v>
+        <v>11.97439884956979</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.85732216881892</v>
+        <v>30.85732216880278</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.74590046642656</v>
+        <v>36.74590046649136</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.063527725587658</v>
+        <v>6.063527725594025</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.0945003427261</v>
+        <v>26.09450034275794</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.12796556789833</v>
+        <v>31.12796556790378</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.10542863417121</v>
+        <v>15.10542863411051</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>37.69230827636095</v>
+        <v>37.6923082763132</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>44.11033978227822</v>
+        <v>44.11033978217522</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.35341029541227</v>
+        <v>40.35341029539067</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.15476721422367</v>
+        <v>51.15476721420764</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>55.16712607764786</v>
+        <v>55.16712607761092</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.5957774176732</v>
+        <v>19.59577741756247</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.58559112347955</v>
+        <v>40.58559112347477</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.10927891192539</v>
+        <v>48.10927891185149</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>19.73035934586487</v>
+        <v>19.73035934585395</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.61490878355828</v>
+        <v>38.61490878360011</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.50482375548488</v>
+        <v>44.50482375549397</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>13.82669726371482</v>
+        <v>13.82669726369708</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.86028015591437</v>
+        <v>33.86028015590186</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.89417969891137</v>
+        <v>38.89417969889932</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.87175805379983</v>
+        <v>22.87175805372867</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.46037068248579</v>
+        <v>45.46037068244475</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>51.87991215601623</v>
+        <v>51.87991215594563</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.1276549866548</v>
+        <v>48.12765498667777</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>58.92972206361178</v>
+        <v>58.92972206358756</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>62.94346446006993</v>
+        <v>62.94346446001661</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.3666820512547</v>
+        <v>27.36668205119876</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.35815793368776</v>
+        <v>48.35815793366343</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>55.88289401789818</v>
+        <v>55.88289401783406</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-12.21139116906314</v>
+        <v>-12.21139116905404</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.659085206494449</v>
+        <v>6.659085206496268</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.54581695689812</v>
+        <v>12.54581695686356</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-18.11517749286834</v>
+        <v>-18.11517749292257</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.904175720209121</v>
+        <v>1.904175720132724</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.934949347429818</v>
+        <v>6.934949347397076</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-9.082588381456237</v>
+        <v>-9.082588381480338</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.49163196366116</v>
+        <v>13.49163196365161</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.90748340927761</v>
+        <v>19.9074834092501</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.14705806195392</v>
+        <v>16.14705806196939</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.94081542540657</v>
+        <v>26.94081542538474</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.9525096172611</v>
+        <v>30.95250961721744</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-4.59987065510764</v>
+        <v>-4.59987065515141</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.37121983063893</v>
+        <v>16.37121983059425</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.8950319120277</v>
+        <v>23.89503191197847</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-6.993808668548883</v>
+        <v>-6.993808668567869</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.88509921575682</v>
+        <v>11.88509921576353</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>17.77390497809283</v>
+        <v>17.77390497808271</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-12.90841315956228</v>
+        <v>-12.9084131596264</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.117920918140197</v>
+        <v>7.117920918166572</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.15183304090389</v>
+        <v>12.15183304087183</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3.868926370330502</v>
+        <v>-3.868926370402352</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.71369832851034</v>
+        <v>18.71369832845123</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.13193400435254</v>
+        <v>25.13193400429956</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.3747591846341</v>
+        <v>21.37475918459135</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.17507753101829</v>
+        <v>32.17507753100976</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.18766285604345</v>
+        <v>36.18766285601423</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.6202220422699547</v>
+        <v>0.6202220422733653</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.60654484376009</v>
+        <v>21.60654484368017</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.13024499914358</v>
+        <v>29.13024499910163</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.7640329874455283</v>
+        <v>0.7640329874523495</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.64456692933156</v>
+        <v>19.64456692936066</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.53470921271439</v>
+        <v>25.53470921276077</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-5.143362722151284</v>
+        <v>-5.143362722140029</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.88558149291888</v>
+        <v>14.88558149292161</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.91992789354303</v>
+        <v>19.91992789352006</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.899283977809585</v>
+        <v>3.899283977853241</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.48364161803196</v>
+        <v>26.48364161806471</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.90338707267669</v>
+        <v>32.90338707267306</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.15088462943804</v>
+        <v>29.15088462944531</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.95191290283019</v>
+        <v>39.95191290278653</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.96588170490627</v>
+        <v>43.96588170489171</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.39300778164424</v>
+        <v>8.393007781652198</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.38099247387406</v>
+        <v>29.38099247388395</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.90574070312248</v>
+        <v>36.90574070314874</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1.828258272600539</v>
+        <v>-1.828258272626346</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.04536690325237</v>
+        <v>17.04536690324134</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.93128952189015</v>
+        <v>22.93128952186093</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-7.731332097053002</v>
+        <v>-7.731332097009346</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.2915350493643</v>
+        <v>12.291535049371</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.32125412304257</v>
+        <v>17.32125412303928</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>1.303193386196011</v>
+        <v>1.303193386169635</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.88076794692669</v>
+        <v>23.88076794688008</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.29589564103393</v>
+        <v>30.29589564102393</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.53559017474167</v>
+        <v>26.53559017471052</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.33044206441734</v>
+        <v>37.33044206434458</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.34156957240582</v>
+        <v>41.34156957238444</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.785278112387953</v>
+        <v>5.785278112387726</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.75937101357617</v>
+        <v>26.75937101358162</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.28250637715728</v>
+        <v>34.28250637715159</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.393826984832042</v>
+        <v>3.393826984819537</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.27588380551132</v>
+        <v>22.27588380549302</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.16388009086976</v>
+        <v>28.16388009087329</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-2.520065736453109</v>
+        <v>-2.520065736518593</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.50978236773703</v>
+        <v>17.50978236772691</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.54263961951805</v>
+        <v>22.54263961945609</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.52135817691855</v>
+        <v>6.521358176883989</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.10733725347681</v>
+        <v>29.10733725347124</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.52484884298637</v>
+        <v>35.52484884297262</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.76779443495347</v>
+        <v>31.76779443493346</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.56920746972064</v>
+        <v>42.56920746969131</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>46.58122585742858</v>
+        <v>46.58122585738469</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.00987381068766</v>
+        <v>11.00987381066902</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.99919937054248</v>
+        <v>31.99919937052702</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>39.52222247668207</v>
+        <v>39.52222247671436</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.14947052700635</v>
+        <v>11.14947052693359</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.03315352358394</v>
+        <v>30.03315352359349</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.9224864023568</v>
+        <v>35.92248640232383</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.242786705529209</v>
+        <v>5.242786705481461</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.27524509610127</v>
+        <v>25.27524509610616</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.30853659061669</v>
+        <v>30.30853659059089</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.28737047374379</v>
+        <v>14.28737047370673</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.87508259718486</v>
+        <v>36.87508259718474</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.29410407464427</v>
+        <v>43.29410407464415</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.5417220815646</v>
+        <v>39.54172208151185</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.34384514668083</v>
+        <v>50.34384514662808</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.3572472127925</v>
+        <v>54.35724721273066</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>18.7804615226908</v>
+        <v>18.78046152261531</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.77144921720382</v>
+        <v>39.77144921719746</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.29552045633663</v>
+        <v>47.29552045632026</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-12.49590173667942</v>
+        <v>-12.49590173667089</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>6.375676775780146</v>
+        <v>6.375676775761274</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.26164809078947</v>
+        <v>12.2616480907581</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-18.39994723620608</v>
+        <v>-18.39994723621711</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1.620635032164198</v>
+        <v>1.620635032143053</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.650461585379997</v>
+        <v>6.650461585394094</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-9.36657408915649</v>
+        <v>-9.366574089168427</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>13.20896743997836</v>
+        <v>13.20896743996495</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.62411811673955</v>
+        <v>19.62411811671499</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.86422289898159</v>
+        <v>15.8642228989584</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.65813199400194</v>
+        <v>26.65813199395579</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.6694938697115</v>
+        <v>30.6694938696949</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-4.883824830011651</v>
+        <v>-4.883824829998122</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.08800754927408</v>
+        <v>16.08800754922497</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.61124867365417</v>
+        <v>23.61124867366963</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-7.284701885178567</v>
+        <v>-7.284701885174929</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>11.59530812668406</v>
+        <v>11.5953081266969</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>17.48335336303414</v>
+        <v>17.48335336306995</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-13.19956656356358</v>
+        <v>-13.19956656354119</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>6.82799643185869</v>
+        <v>6.827996431903482</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.86096143557772</v>
+        <v>11.86096143560364</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-4.159295675261507</v>
+        <v>-4.159295675218761</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.42465021266234</v>
+        <v>18.42465021267223</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.84218505243306</v>
+        <v>24.84218505242363</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.0855412148699</v>
+        <v>21.08554121484466</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.88601139016513</v>
+        <v>31.88601139012091</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.89826436014077</v>
+        <v>35.89826436011337</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.32988512121646</v>
+        <v>0.3298851212714844</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>21.31695012506206</v>
+        <v>21.31695012502102</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.8400790998251</v>
+        <v>28.84007909985796</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.4774736908491768</v>
+        <v>0.4774736908600907</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.35910999150034</v>
+        <v>19.35910999152183</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.24849170176769</v>
+        <v>25.24849170175825</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-5.430182065735341</v>
+        <v>-5.430182065752394</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.59999137481809</v>
+        <v>14.59999137478523</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.63339052271162</v>
+        <v>19.633390522704</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.613249212683098</v>
+        <v>3.613249212688554</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.19892827510231</v>
+        <v>26.19892827502683</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.61797286717449</v>
+        <v>32.61797286716266</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.86600130181732</v>
+        <v>28.86600130181436</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.66718146570342</v>
+        <v>39.66718146569887</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.68081797578229</v>
+        <v>43.68081797580412</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.107005047296109</v>
+        <v>8.107005047270416</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.09573219004805</v>
+        <v>29.09573219003361</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>36.61990920509884</v>
+        <v>36.61990920507598</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-19.56782255744686</v>
+        <v>-19.56782255744209</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.697688012931355</v>
+        <v>-0.6976880129380625</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.187788346029304</v>
+        <v>5.187788346060795</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-25.47221399421399</v>
+        <v>-25.47221399428357</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-5.453175296985666</v>
+        <v>-5.453175297007494</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.4238540773818222</v>
+        <v>-0.4238540774000121</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-16.43981496958652</v>
+        <v>-16.43981496962518</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.134104061843157</v>
+        <v>6.134104061829174</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>12.54875226413973</v>
+        <v>12.54875226416872</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.789446046714186</v>
+        <v>8.789446046717597</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.58288659167105</v>
+        <v>19.58288659166935</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.59401807368844</v>
+        <v>23.59401807369651</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-11.95718242051278</v>
+        <v>-11.95718242049368</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.013132488019703</v>
+        <v>9.013132488039712</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.53576348945607</v>
+        <v>16.53576348947335</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-14.35433433823467</v>
+        <v>-14.35433433827855</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.524231408708413</v>
+        <v>4.524231408680787</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.41178160021745</v>
+        <v>10.41178160021552</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-20.26954447217266</v>
+        <v>-20.26954447224735</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-0.2435253086138864</v>
+        <v>-0.2435253086766416</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.788934258109332</v>
+        <v>4.788934258067268</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-11.23024783452998</v>
+        <v>-11.23024783455044</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.35207526553021</v>
+        <v>11.35207526552783</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.76910752303392</v>
+        <v>17.76910752308656</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.01305240934748</v>
+        <v>14.01305240933725</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.8130537987635</v>
+        <v>24.81305379879067</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.82507631470609</v>
+        <v>28.82507631470416</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-6.741184277368991</v>
+        <v>-6.741184277373424</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>14.2443626263237</v>
+        <v>14.24436262631211</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.76688153086779</v>
+        <v>21.76688153090985</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-6.592619667324318</v>
+        <v>-6.592619667375818</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>12.28757231040315</v>
+        <v>12.28757231039826</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>18.17645888007489</v>
+        <v>18.17645888003294</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-12.50062122790071</v>
+        <v>-12.50062122787343</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.528008288005633</v>
+        <v>7.528008288013137</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.56090194181256</v>
+        <v>12.56090194181779</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-3.458164296140655</v>
+        <v>-3.458164296158845</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.12589191438989</v>
+        <v>19.12589191430076</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.54443382739616</v>
+        <v>25.54443382737797</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.79305085523542</v>
+        <v>21.79305085524633</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.59376217064521</v>
+        <v>32.59376217060337</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.6071681565865</v>
+        <v>36.60716815658286</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>1.035474211452577</v>
+        <v>1.035474211489866</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.02268315096653</v>
+        <v>22.02268315099108</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.54624997311388</v>
+        <v>29.54624997313844</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-3.609584892631876</v>
+        <v>-3.609584892614595</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.26283622139128</v>
+        <v>15.26283622135479</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.15027436053007</v>
+        <v>21.15027436051973</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-9.514239989209688</v>
+        <v>-9.514239989213895</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.5071244863921</v>
+        <v>10.50712448634833</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.53857009508651</v>
+        <v>15.53857009507935</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-0.4802414042610117</v>
+        <v>-0.4802414042173559</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.09640919473729</v>
+        <v>22.09640919478811</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.51301825957277</v>
+        <v>28.51301825955424</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.75270887703418</v>
+        <v>24.7527088770003</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.54778849979861</v>
+        <v>35.54778849978884</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.55980386543415</v>
+        <v>39.55980386545802</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>4.005102481971601</v>
+        <v>4.005102481953184</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.97775357052744</v>
+        <v>24.9777535704665</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.50254835915477</v>
+        <v>32.50254835911566</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1.601820982153907</v>
+        <v>1.601820982154361</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.48267419268874</v>
+        <v>20.48267419270239</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.37218641801307</v>
+        <v>26.37218641802739</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-4.313653835305178</v>
+        <v>-4.31365383538169</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.71469189252586</v>
+        <v>15.71469189252916</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.74927619409497</v>
+        <v>20.74927619403301</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.727242409507465</v>
+        <v>4.727242409525655</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.31229794138498</v>
+        <v>27.31229794138396</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.73129134420883</v>
+        <v>33.73129134423395</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.97423354585252</v>
+        <v>29.97423354584479</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>40.7758747970568</v>
+        <v>40.77587479706249</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>44.78878134341294</v>
+        <v>44.78878134342203</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.21901842444667</v>
+        <v>9.219018424422568</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.20690303552616</v>
+        <v>30.2069030354891</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.73158558125958</v>
+        <v>37.73158558125162</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>9.359795607158542</v>
+        <v>9.359795607120571</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.24227522384687</v>
+        <v>28.24227522386984</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.13312402848935</v>
+        <v>34.13312402842386</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>3.451530514190647</v>
+        <v>3.451530514229983</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.48248683105866</v>
+        <v>23.48248683102956</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.51750535391038</v>
+        <v>28.51750535392766</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.49558694024612</v>
+        <v>12.49558694019906</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.08237579010181</v>
+        <v>35.08237579011079</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.50287905615157</v>
+        <v>41.5028790561942</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>37.75049419770862</v>
+        <v>37.7504941976711</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>48.55284559341446</v>
+        <v>48.552845593399</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>52.56713560122073</v>
+        <v>52.56713560118889</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.99193866441582</v>
+        <v>16.99193866440764</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.98148563852912</v>
+        <v>37.98148563849638</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>45.50721635383245</v>
+        <v>45.50721635382608</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.5331565845731738</v>
+        <v>0.5331565845640789</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.40641051330537</v>
+        <v>19.40641051328172</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.29270806776564</v>
+        <v>25.29270806779384</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-5.369204141978418</v>
+        <v>-5.369204142001724</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.65320002501862</v>
+        <v>14.65320002500395</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.68336776132223</v>
+        <v>19.68336776129346</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.665240913105247</v>
+        <v>3.665240913071369</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.24242377844204</v>
+        <v>26.24242377840805</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.65790305020157</v>
+        <v>32.65790305017394</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.89771144374235</v>
+        <v>28.89771144369687</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.6923334943056</v>
+        <v>39.69233349425001</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>43.70381293854011</v>
+        <v>43.70381293842881</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.147643056222972</v>
+        <v>8.147643056212967</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.12163080178315</v>
+        <v>29.12163080181544</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.64514902782484</v>
+        <v>36.64514902783189</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.742635313937893</v>
+        <v>5.742635313888325</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.62432075494193</v>
+        <v>24.62432075489998</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.51269208125408</v>
+        <v>30.51269208121395</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-0.1705448552849766</v>
+        <v>-0.1705448553331799</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.85884004892675</v>
+        <v>19.85884004893493</v>
       </c>
     </row>
     <row r="652">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.87079791618002</v>
+        <v>8.870797916129998</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.45638516332853</v>
+        <v>31.45638516331659</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.87424843729575</v>
+        <v>37.87424843726608</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.11730837248665</v>
+        <v>34.11730837247664</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.91849152937634</v>
+        <v>44.9184915293544</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.93086195559685</v>
+        <v>48.93086195554899</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>13.35963176630075</v>
+        <v>13.35963176630007</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.34885203473395</v>
+        <v>34.34885203473213</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.87225805460189</v>
+        <v>41.87225805457642</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>13.50042476402295</v>
+        <v>13.50042476398975</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>32.38373636025101</v>
+        <v>32.38373636022372</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.27344431985232</v>
+        <v>38.27344431983413</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>7.594453884687066</v>
+        <v>7.594453884675925</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.62644909969735</v>
+        <v>27.62644909969712</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.6601894189012</v>
+        <v>32.66018941891939</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.63895662552913</v>
+        <v>16.63895662547365</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.22627690132258</v>
+        <v>39.2262769013203</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>45.64565009649964</v>
+        <v>45.64565009645939</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.89338243524553</v>
+        <v>41.89338243517754</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.69527561595378</v>
+        <v>52.69527561591728</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>56.70902965554278</v>
+        <v>56.70902965547718</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>21.13236582314725</v>
+        <v>21.13236582319545</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.12324821136296</v>
+        <v>42.12324821130055</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.64770238804356</v>
+        <v>49.64770238801934</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2.59664277864071</v>
+        <v>2.596642778605922</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.4710119171804</v>
+        <v>21.47101191719859</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.35874147611177</v>
+        <v>27.35874147609381</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-3.306072609403106</v>
+        <v>-3.306072609434938</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.71749710794226</v>
+        <v>16.7174971079384</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.74922670070411</v>
+        <v>21.74922670065045</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>5.728568576071932</v>
+        <v>5.728568576024639</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.30725155619886</v>
+        <v>28.30725155615339</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.72415925617581</v>
+        <v>34.72415925616194</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.96353006970712</v>
+        <v>30.96353006964686</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.75935569819653</v>
+        <v>41.75935569816004</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>45.77153423435634</v>
+        <v>45.77153423434531</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.21378908130218</v>
+        <v>10.21378908132696</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.18851862561739</v>
+        <v>31.18851862558044</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.71366993691633</v>
+        <v>38.71366993692099</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>7.810672484108675</v>
+        <v>7.810672484025002</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.69347395694642</v>
+        <v>26.69347395696176</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.58327749383936</v>
+        <v>32.58327749383197</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.897137048550842</v>
+        <v>1.89713704853629</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.92768818991344</v>
+        <v>21.92768818995334</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.96255637923404</v>
+        <v>26.96255637925212</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>10.93867626797241</v>
+        <v>10.93867626795035</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.52576442281149</v>
+        <v>33.52576442280592</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.94505635957937</v>
+        <v>39.94505635956834</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.18767885712377</v>
+        <v>36.18767885713787</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.99006629618422</v>
+        <v>46.99006629619696</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.00313597918436</v>
+        <v>51.00313597915708</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.43032895348123</v>
+        <v>15.43032895348078</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.4202924033862</v>
+        <v>36.42029240336335</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.94533125656294</v>
+        <v>43.94533125656373</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.56591000482448</v>
+        <v>15.56591000477696</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.45033783954038</v>
+        <v>34.45033783954777</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.3414780387274</v>
+        <v>40.34147803872365</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.65958458585855</v>
+        <v>9.659584585929718</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.69274629270994</v>
+        <v>29.69274629276462</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.72804876162563</v>
+        <v>34.72804876161847</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>18.70428381719971</v>
+        <v>18.70428381722381</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.29310523950021</v>
+        <v>41.29310523948338</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.71390713523674</v>
+        <v>47.71390713520672</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.96120273582601</v>
+        <v>43.96120273580009</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.76430037366428</v>
+        <v>54.76430037364462</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.77875356964175</v>
+        <v>58.77875356959889</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.2005124317739</v>
+        <v>23.20051243179914</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>44.19213828727872</v>
+        <v>44.19213828727315</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.71822541579392</v>
+        <v>51.71822541577767</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1.285224246602223</v>
+        <v>1.285224246591309</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.15758826878179</v>
+        <v>20.15758826870175</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.04530517571645</v>
+        <v>26.04530517574191</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-4.617057300384619</v>
+        <v>-4.617057300357903</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.40428395813812</v>
+        <v>15.40428395814369</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.43607702277147</v>
+        <v>20.43607702281524</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>4.416224664518079</v>
+        <v>4.416224664475333</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.99277284431029</v>
+        <v>26.99277284428733</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.40965367802657</v>
+        <v>33.40965367805181</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.64912819248574</v>
+        <v>29.64912819248984</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.44431064853761</v>
+        <v>40.44431064857069</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>44.45645019792191</v>
+        <v>44.45645019789315</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>8.901344288706962</v>
+        <v>8.901344288674675</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.87392919461074</v>
+        <v>29.87392919456446</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.39906772257693</v>
+        <v>37.39906772251065</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>6.500737702416739</v>
+        <v>6.500737702424015</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.381533757712</v>
+        <v>25.38153375774895</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.27132474621241</v>
+        <v>31.27132474622662</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.5876368442152788</v>
+        <v>0.5876368442234643</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.6159593038157</v>
+        <v>20.61595930380944</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.65089103703319</v>
+        <v>25.65089103698214</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.627816449296727</v>
+        <v>9.627816449339701</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.21276950056101</v>
+        <v>32.21276950056397</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.63203466297107</v>
+        <v>38.63203466289558</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.87476040318374</v>
+        <v>34.87476040319989</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>45.67650445922122</v>
+        <v>45.67650445918041</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>49.6895351864769</v>
+        <v>49.68953518643245</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.1193678002799</v>
+        <v>14.11936780025239</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.10718603697551</v>
+        <v>35.10718603696721</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.63221229251398</v>
+        <v>42.63221229250227</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>14.25549385605204</v>
+        <v>14.25549385605749</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.13791626212507</v>
+        <v>33.13791626213144</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.02904379295244</v>
+        <v>39.02904379294243</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>8.349602863910189</v>
+        <v>8.349602863877447</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.38053583000878</v>
+        <v>28.38053583000935</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.41590175917058</v>
+        <v>33.41590175914523</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.39294232909155</v>
+        <v>17.392942329072</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.97962864007006</v>
+        <v>39.97962864008325</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.40040363424934</v>
+        <v>46.40040363426117</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.64780249421101</v>
+        <v>42.64780249419191</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.45025670182183</v>
+        <v>53.45025670183797</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>57.46467084134308</v>
+        <v>57.46467084136036</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.88906957443946</v>
+        <v>21.88906957444037</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.87855018186023</v>
+        <v>42.87855018190821</v>
       </c>
     </row>
     <row r="766">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-0.9381396673934042</v>
+        <v>-0.9381396674088656</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.93644068974201</v>
+        <v>17.93644068975247</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>23.82328037134804</v>
+        <v>23.82328037134418</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-6.840804994972888</v>
+        <v>-6.84080499499483</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.18303709874094</v>
+        <v>13.18303709875947</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.21370554802256</v>
+        <v>18.21370554798242</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2.193939474321308</v>
+        <v>2.193939474331994</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.77269840233116</v>
+        <v>24.77269840230546</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.18874953531467</v>
+        <v>31.18874953526533</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.42829501644136</v>
+        <v>27.42829501647502</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.22372879616084</v>
+        <v>38.22372879616061</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>42.23532007148007</v>
+        <v>42.23532007147735</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>6.677153821406176</v>
+        <v>6.677153821405494</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.65266181740848</v>
+        <v>27.65266181734959</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.17684838050904</v>
+        <v>35.17684838051836</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4.274494257553254</v>
+        <v>4.274494257527106</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.1575066673876</v>
+        <v>23.15750666735338</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.04642024388333</v>
+        <v>29.04642024383569</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.638990718781731</v>
+        <v>-1.638990718759789</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.39183262517217</v>
+        <v>18.39183262515932</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.42563953542667</v>
+        <v>23.42563953540836</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>7.402651823566242</v>
+        <v>7.402651823561467</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.98981565066644</v>
+        <v>29.989815650593</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.40825092924085</v>
+        <v>36.40825092913694</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.6510480852251</v>
+        <v>32.65104808522601</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>43.45304343688967</v>
+        <v>43.45304343690684</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>47.46552568879615</v>
+        <v>47.46552568878785</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.89229817434447</v>
+        <v>11.89229817435493</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.88303967774793</v>
+        <v>32.8830396777585</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.40711395681767</v>
+        <v>40.40711395682028</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.03094118270864</v>
+        <v>12.03094118263747</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.91557988680965</v>
+        <v>30.91557988680044</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.80583013583605</v>
+        <v>36.80583013576317</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.124666011977109</v>
+        <v>6.124666011984385</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.15809981495515</v>
+        <v>26.15809981495412</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.1923410299227</v>
+        <v>31.19234102991167</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.16946853600011</v>
+        <v>15.16946853603148</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.7583655482927</v>
+        <v>37.75836554827451</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.17831079089028</v>
+        <v>44.17831079088027</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.4257808238779</v>
+        <v>40.42578082385471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>51.22848629672266</v>
+        <v>51.22848629668708</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>55.24235222977113</v>
+        <v>55.24235222979489</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.66369073661671</v>
+        <v>19.66369073667196</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.65609449071978</v>
+        <v>40.65609449070148</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.18121699062264</v>
+        <v>48.18121699060093</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-8.548327587117871</v>
+        <v>-8.548327587160731</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>10.32271596158993</v>
+        <v>10.32271596159471</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.209804523214</v>
+        <v>16.2098045231999</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-14.4526754708822</v>
+        <v>-14.452675470839</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>5.567287984773127</v>
+        <v>5.567287984802004</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>10.59847248067824</v>
+        <v>10.59847248066346</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-5.41983755794168</v>
+        <v>-5.419837557961575</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.15513969958662</v>
+        <v>17.1551396995673</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.57135580386891</v>
+        <v>23.57135580387414</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.81108587019211</v>
+        <v>19.81108587017529</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.6053535087215</v>
+        <v>30.6053535087165</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.61717385641741</v>
+        <v>34.6171738564024</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-0.9354173153776237</v>
+        <v>-0.9354173153971779</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>20.03582689619683</v>
+        <v>20.0358268961741</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.56015770619119</v>
+        <v>27.56015770620847</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-3.329227134463128</v>
+        <v>-3.32922713443482</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>15.5502483095053</v>
+        <v>15.55024830957533</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>21.43941101118541</v>
+        <v>21.43941101122816</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-9.244393364772652</v>
+        <v>-9.244393364782656</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>10.78255121188003</v>
+        <v>10.78255121187253</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>15.81687441712556</v>
+        <v>15.81687441711874</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-0.204657894330655</v>
+        <v>-0.2046578943438426</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.378724101239</v>
+        <v>22.37872410128754</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.79732457081768</v>
+        <v>28.79732457083007</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.04030535324413</v>
+        <v>25.04030535324891</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.84113431913299</v>
+        <v>35.84113431906876</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>39.85384588427966</v>
+        <v>39.85384588428091</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>4.28619339465153</v>
+        <v>4.286193394648119</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.27267059923035</v>
+        <v>25.2726705992798</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.79688937982853</v>
+        <v>32.79688937988503</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>4.427601396758785</v>
+        <v>4.427601396698986</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.30870309691879</v>
+        <v>23.30870309691322</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.19920222607349</v>
+        <v>29.19920222608975</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1.480355780661132</v>
+        <v>-1.480355780669772</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.54919921543744</v>
+        <v>18.54919921546336</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.5839565612802</v>
+        <v>23.58395656125814</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>7.562539680044704</v>
+        <v>7.562539680011053</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.14765482990178</v>
+        <v>30.14765482990735</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.56776499123525</v>
+        <v>36.56776499122354</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>32.81541845764154</v>
+        <v>32.81541845766269</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>43.61695746844968</v>
+        <v>43.61695746843445</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.63105234922266</v>
+        <v>47.63105234920424</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>12.05796642885756</v>
+        <v>12.05796642880095</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.04610581926754</v>
+        <v>33.04610581931301</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.57137262087149</v>
+        <v>40.5713726208849</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-2.490967934171824</v>
+        <v>-2.490967934194902</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.38109941563441</v>
+        <v>16.38109941565214</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.26891094568729</v>
+        <v>22.26891094570798</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-8.393612065417489</v>
+        <v>-8.393612065446479</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>11.62738589151153</v>
+        <v>11.62738589152381</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.65930259370866</v>
+        <v>16.65930259367478</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>0.6394789454587162</v>
+        <v>0.639478945448257</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.2157114137597</v>
+        <v>23.21571141376073</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.63267919379431</v>
+        <v>29.63267919379056</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.87235726987869</v>
+        <v>25.87235726986414</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.66743970270606</v>
+        <v>36.66743970269606</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>40.67965919015039</v>
+        <v>40.67965919013766</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.124904920420743</v>
+        <v>5.124904920421425</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.09724057499549</v>
+        <v>26.0972405750138</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.62244736740188</v>
+        <v>33.62244736737379</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2.724152237759466</v>
+        <v>2.724152237690571</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.6046516450563</v>
+        <v>21.60465164503504</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.4945373273877</v>
+        <v>27.4945373274367</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-3.189311158492462</v>
+        <v>-3.189311158529069</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.83866802851029</v>
+        <v>16.83866802853224</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.87372347384989</v>
+        <v>21.87372347382067</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>5.850677460748368</v>
+        <v>5.8506774607993</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.43531482187499</v>
+        <v>28.4353148218676</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.85466699935868</v>
+        <v>34.85466699936221</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.09759620262825</v>
+        <v>31.09759620264007</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.89924024947292</v>
+        <v>41.89924024943745</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.91235095225026</v>
+        <v>45.91235095222753</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.34253512646869</v>
+        <v>10.34253512648483</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.33010412723005</v>
+        <v>31.33010412725859</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.85519872771265</v>
+        <v>38.85519872776915</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.4792867855097</v>
+        <v>10.47928678548059</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.3614125437064</v>
+        <v>29.36141254372096</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.25263473811269</v>
+        <v>35.25263473807631</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.573033226299724</v>
+        <v>4.573033226325418</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.6036229221168</v>
+        <v>24.60362292208871</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.63911253973769</v>
+        <v>29.63911253979306</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>13.61618173297374</v>
+        <v>13.61618173300648</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.20255235558766</v>
+        <v>36.20255235559846</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.62341433163674</v>
+        <v>42.62341433166573</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.8710166775857</v>
+        <v>38.87101667761458</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.67337085514787</v>
+        <v>49.67337085512069</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.68786493601537</v>
+        <v>53.68786493606369</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>18.11261528682079</v>
+        <v>18.11261528679556</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>39.10184663957698</v>
+        <v>39.10184663958005</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>46.62798937162783</v>
+        <v>46.62798937158065</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>4.15223184318101</v>
+        <v>4.15223184320352</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.02478847810725</v>
+        <v>23.02478847808235</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.911586776301</v>
+        <v>28.91158677625542</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-1.749639647970373</v>
+        <v>-1.749639647992655</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>18.27217978382309</v>
+        <v>18.27217978385583</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.30289817911129</v>
+        <v>23.30289817912721</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>7.284676964857493</v>
+        <v>7.284676964812018</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.86125248929356</v>
+        <v>29.86125248927503</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.27721681531766</v>
+        <v>36.27721681532414</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>32.51689464931614</v>
+        <v>32.5168946493</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.3114161885906</v>
+        <v>43.31141618856843</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.32287301641126</v>
+        <v>47.32287301637614</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>11.7689266375019</v>
+        <v>11.76892663756784</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>32.7415542943791</v>
+        <v>32.74155429440422</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.26582181922326</v>
+        <v>40.265821819187</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>9.364944781668822</v>
+        <v>9.364944781616753</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.24593298568372</v>
+        <v>28.24593298569179</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.13480494134176</v>
+        <v>34.13480494135324</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>3.452254044228805</v>
+        <v>3.452254044204476</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.48105424580607</v>
+        <v>23.48105424577299</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.51491083657838</v>
+        <v>28.51491083654825</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>12.49346828700963</v>
+        <v>12.49346828706102</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.07844823717771</v>
+        <v>35.07844823714736</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>41.49679646385964</v>
+        <v>41.49679646384065</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.73972589799568</v>
+        <v>37.73972589803411</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.54080852967051</v>
+        <v>48.5408085296463</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>52.55315638683275</v>
+        <v>52.55315638681081</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.98414969748891</v>
+        <v>16.98414969747595</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.97201000856721</v>
+        <v>37.97201000859802</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.49616489769305</v>
+        <v>45.4961648977134</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.12045623999829</v>
+        <v>17.12045623996714</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.00307067931514</v>
+        <v>36.00307067930321</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>41.89327922823502</v>
+        <v>41.89327922826492</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>11.21497484552587</v>
+        <v>11.21497484547062</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.24638543952919</v>
+        <v>31.24638543948906</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.28067626542592</v>
+        <v>36.28067626544014</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>20.25934890418788</v>
+        <v>20.25934890416492</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.84606197313092</v>
+        <v>42.84606197313012</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>49.26592007598428</v>
+        <v>49.2659200759869</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.51352217276444</v>
+        <v>45.5135221727699</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.31531497608766</v>
+        <v>56.31531497605583</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>60.3290463042852</v>
+        <v>60.32904630421244</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.75460581417296</v>
+        <v>24.7546058141625</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.74412835486628</v>
+        <v>45.74412835491744</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.26933143907154</v>
+        <v>53.26933143908404</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-0.3779641263360709</v>
+        <v>-0.3779641263401636</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>18.49655313626026</v>
+        <v>18.49655313627822</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.3834366521858</v>
+        <v>24.38343665215465</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-6.280472987774903</v>
+        <v>-6.280472987794912</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>13.74330206287372</v>
+        <v>13.74330206287918</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.77402075033437</v>
+        <v>18.77402075042987</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.754204594004516</v>
+        <v>2.754204594040214</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.33287310894142</v>
+        <v>25.33287310897496</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.74896193473073</v>
+        <v>31.74896193469605</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>27.98858645937757</v>
+        <v>27.98858645937461</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.7840168568752</v>
+        <v>38.78401685689509</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.79559063219874</v>
+        <v>42.79559063219476</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>7.237606083668464</v>
+        <v>7.237606083716212</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.21306523875937</v>
+        <v>28.21306523878654</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.73724153797757</v>
+        <v>35.73724153799655</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>4.83507865510823</v>
+        <v>4.835078655140972</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.71802792191026</v>
+        <v>23.71802792187843</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.60698530983806</v>
+        <v>29.60698530983079</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1.078249754474502</v>
+        <v>-1.078249754534529</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.95250650914117</v>
+        <v>18.95250650910752</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.98636361488779</v>
+        <v>23.98636361485846</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.963325846862102</v>
+        <v>7.963325846889386</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>30.55039921122993</v>
+        <v>30.55039921120992</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.96887216030773</v>
+        <v>36.96887216033501</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.21174828580256</v>
+        <v>33.21174828576618</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.01374023548719</v>
+        <v>44.01374023548003</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>48.02620498101105</v>
+        <v>48.02620498099934</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>12.45315924454443</v>
+        <v>12.45315924460673</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.44385179071053</v>
+        <v>33.44385179062913</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.96791580688698</v>
+        <v>40.96791580685628</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>12.59084671366649</v>
+        <v>12.59084671362647</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>31.47542227007765</v>
+        <v>31.4754222700631</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.36571629230939</v>
+        <v>37.36571629234577</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>6.684728086162789</v>
+        <v>6.684728086130047</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.71809479271887</v>
+        <v>26.7180947926643</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.75238618162443</v>
+        <v>31.75238618156986</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>15.72946358123276</v>
+        <v>15.7294635812746</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>38.31827012674448</v>
+        <v>38.31827012676813</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>44.73825299786658</v>
+        <v>44.7382529978775</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.98580203592023</v>
+        <v>40.98580203589135</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>51.78850410325099</v>
+        <v>51.78850410325929</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>55.80235250051264</v>
+        <v>55.80235250045432</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>20.22387284974029</v>
+        <v>20.22387284975325</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.21622764754947</v>
+        <v>41.21622764755857</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>48.74133986749511</v>
+        <v>48.74133986751694</v>
       </c>
     </row>
   </sheetData>
